--- a/scenario_tocs.xlsx
+++ b/scenario_tocs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\xMeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B9BF1A-DCA9-4591-9E40-92A2F52C994E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9F9681-7715-4B02-A3CB-928BA071DFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3963" uniqueCount="1586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="1588">
   <si>
     <t>issue_url</t>
   </si>
@@ -4846,6 +4846,12 @@
   </si>
   <si>
     <t>Conference Items</t>
+  </si>
+  <si>
+    <t>Conference Item</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -15570,7 +15576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F625CC-18F4-4775-BC1F-D600E757741E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -16609,10 +16615,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684E9DB5-6864-4CCB-B516-676B6091924A}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16627,7 +16633,7 @@
     <col min="13" max="13" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1537</v>
       </c>
@@ -16667,8 +16673,11 @@
       <c r="M1" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1560</v>
       </c>
@@ -16705,8 +16714,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1555</v>
       </c>
@@ -16743,8 +16755,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1579</v>
       </c>
@@ -16781,8 +16796,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N4" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1556</v>
       </c>
@@ -16817,8 +16835,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N5" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>1552</v>
       </c>
@@ -16853,8 +16874,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>1553</v>
       </c>
@@ -16891,8 +16915,11 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N7" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>1558</v>
       </c>
@@ -16929,8 +16956,11 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>1551</v>
       </c>
@@ -16967,8 +16997,11 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N9" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>1559</v>
       </c>
@@ -17003,8 +17036,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N10" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>1557</v>
       </c>
@@ -17041,8 +17077,11 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>1554</v>
       </c>
@@ -17077,8 +17116,11 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>1562</v>
       </c>
@@ -17115,8 +17157,11 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N13" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>1548</v>
       </c>
@@ -17153,8 +17198,11 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1550</v>
       </c>
@@ -17189,8 +17237,11 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N15" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>1549</v>
       </c>
@@ -17225,8 +17276,11 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N16" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>1563</v>
       </c>
@@ -17262,6 +17316,9 @@
       </c>
       <c r="M17">
         <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1587</v>
       </c>
     </row>
   </sheetData>

--- a/scenario_tocs.xlsx
+++ b/scenario_tocs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\xMeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9F9681-7715-4B02-A3CB-928BA071DFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F29878-7344-4A77-9D2C-0D7DE98F3838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="1588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="1595">
   <si>
     <t>issue_url</t>
   </si>
@@ -4656,9 +4656,6 @@
     <t>Practitioners' Voices</t>
   </si>
   <si>
-    <t>Conference items</t>
-  </si>
-  <si>
     <t>Terminology Matters</t>
   </si>
   <si>
@@ -4852,6 +4849,30 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>Rezensionen</t>
+  </si>
+  <si>
+    <t>Conference Announcements</t>
+  </si>
+  <si>
+    <t>Konferenzankündigungen</t>
+  </si>
+  <si>
+    <t>Conference Contributions</t>
+  </si>
+  <si>
+    <t>Konferenzbeiträge</t>
+  </si>
+  <si>
+    <t>Texts around Theater</t>
+  </si>
+  <si>
+    <t>Terminology</t>
+  </si>
+  <si>
+    <t>Terminologie</t>
   </si>
 </sst>
 </file>
@@ -5266,7 +5287,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -5295,7 +5316,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -5596,7 +5617,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -5622,7 +5643,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -5897,7 +5918,7 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
@@ -5926,7 +5947,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F26" t="s">
         <v>79</v>
@@ -6207,7 +6228,7 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F36" t="s">
         <v>15</v>
@@ -6233,7 +6254,7 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F37" t="s">
         <v>79</v>
@@ -6537,7 +6558,7 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
@@ -6563,7 +6584,7 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F49" t="s">
         <v>79</v>
@@ -6870,7 +6891,7 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F60" t="s">
         <v>15</v>
@@ -6896,7 +6917,7 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F61" t="s">
         <v>79</v>
@@ -7168,7 +7189,7 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
@@ -7194,7 +7215,7 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F72" t="s">
         <v>21</v>
@@ -7431,7 +7452,7 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
@@ -7457,7 +7478,7 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F82" t="s">
         <v>79</v>
@@ -7706,7 +7727,7 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F91" t="s">
         <v>15</v>
@@ -7732,7 +7753,7 @@
         <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F92" t="s">
         <v>79</v>
@@ -8143,7 +8164,7 @@
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F107" t="s">
         <v>15</v>
@@ -8169,7 +8190,7 @@
         <v>20</v>
       </c>
       <c r="D108" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F108" t="s">
         <v>79</v>
@@ -8551,7 +8572,7 @@
         <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F122" t="s">
         <v>15</v>
@@ -8577,7 +8598,7 @@
         <v>20</v>
       </c>
       <c r="D123" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F123" t="s">
         <v>79</v>
@@ -8933,7 +8954,7 @@
         <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F136" t="s">
         <v>15</v>
@@ -8959,7 +8980,7 @@
         <v>20</v>
       </c>
       <c r="D137" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F137" t="s">
         <v>21</v>
@@ -9300,7 +9321,7 @@
         <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F150" t="s">
         <v>15</v>
@@ -9326,7 +9347,7 @@
         <v>20</v>
       </c>
       <c r="D151" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F151" t="s">
         <v>79</v>
@@ -9723,7 +9744,7 @@
         <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F165" t="s">
         <v>15</v>
@@ -9749,7 +9770,7 @@
         <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F166" t="s">
         <v>79</v>
@@ -10134,7 +10155,7 @@
         <v>14</v>
       </c>
       <c r="D180" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F180" t="s">
         <v>15</v>
@@ -10160,7 +10181,7 @@
         <v>20</v>
       </c>
       <c r="D181" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F181" t="s">
         <v>79</v>
@@ -10461,7 +10482,7 @@
         <v>14</v>
       </c>
       <c r="D192" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F192" t="s">
         <v>15</v>
@@ -10487,7 +10508,7 @@
         <v>20</v>
       </c>
       <c r="D193" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F193" t="s">
         <v>21</v>
@@ -10904,7 +10925,7 @@
         <v>845</v>
       </c>
       <c r="D208" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F208" t="s">
         <v>15</v>
@@ -10930,7 +10951,7 @@
         <v>848</v>
       </c>
       <c r="D209" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F209" t="s">
         <v>79</v>
@@ -11283,7 +11304,7 @@
         <v>14</v>
       </c>
       <c r="D222" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F222" t="s">
         <v>26</v>
@@ -11309,7 +11330,7 @@
         <v>20</v>
       </c>
       <c r="D223" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F223" t="s">
         <v>89</v>
@@ -11578,7 +11599,7 @@
         <v>14</v>
       </c>
       <c r="D233" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F233" t="s">
         <v>15</v>
@@ -11604,7 +11625,7 @@
         <v>20</v>
       </c>
       <c r="D234" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F234" t="s">
         <v>79</v>
@@ -12015,7 +12036,7 @@
         <v>14</v>
       </c>
       <c r="D249" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F249" t="s">
         <v>15</v>
@@ -12041,7 +12062,7 @@
         <v>20</v>
       </c>
       <c r="D250" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F250" t="s">
         <v>79</v>
@@ -12516,7 +12537,7 @@
         <v>14</v>
       </c>
       <c r="D267" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F267" t="s">
         <v>15</v>
@@ -12542,7 +12563,7 @@
         <v>20</v>
       </c>
       <c r="D268" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F268" t="s">
         <v>21</v>
@@ -12924,7 +12945,7 @@
         <v>14</v>
       </c>
       <c r="D282" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F282" t="s">
         <v>15</v>
@@ -12950,7 +12971,7 @@
         <v>20</v>
       </c>
       <c r="D283" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F283" t="s">
         <v>79</v>
@@ -13228,7 +13249,7 @@
         <v>14</v>
       </c>
       <c r="D293" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F293" t="s">
         <v>15</v>
@@ -13254,7 +13275,7 @@
         <v>20</v>
       </c>
       <c r="D294" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F294" t="s">
         <v>79</v>
@@ -13610,7 +13631,7 @@
         <v>14</v>
       </c>
       <c r="D307" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F307" t="s">
         <v>15</v>
@@ -13636,7 +13657,7 @@
         <v>20</v>
       </c>
       <c r="D308" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F308" t="s">
         <v>79</v>
@@ -14366,7 +14387,7 @@
         <v>1344</v>
       </c>
       <c r="D334" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F334" t="s">
         <v>15</v>
@@ -14803,7 +14824,7 @@
         <v>1344</v>
       </c>
       <c r="D350" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F350" t="s">
         <v>15</v>
@@ -15211,7 +15232,7 @@
         <v>1463</v>
       </c>
       <c r="D365" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F365" t="s">
         <v>15</v>
@@ -15576,8 +15597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F625CC-18F4-4775-BC1F-D600E757741E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15597,16 +15618,16 @@
         <v>1514</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1535</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1536</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1537</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -15620,10 +15641,10 @@
         <v>1516</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>772</v>
@@ -15637,21 +15658,21 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D3" t="s">
         <v>564</v>
       </c>
       <c r="E3" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F3" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B4" s="2">
         <v>51</v>
@@ -15663,10 +15684,10 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -15680,10 +15701,10 @@
         <v>1515</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>1587</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F5" t="s">
         <v>212</v>
@@ -15699,11 +15720,14 @@
       <c r="C6" t="s">
         <v>996</v>
       </c>
+      <c r="D6" t="s">
+        <v>996</v>
+      </c>
       <c r="E6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -15720,10 +15744,10 @@
         <v>1221</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="F7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -15737,10 +15761,10 @@
         <v>1516</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>772</v>
@@ -15757,10 +15781,10 @@
         <v>1516</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>772</v>
@@ -15777,10 +15801,10 @@
         <v>1516</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>772</v>
@@ -15796,11 +15820,14 @@
       <c r="C11" t="s">
         <v>1518</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>1518</v>
+      </c>
       <c r="E11" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F11" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -15814,10 +15841,10 @@
         <v>1517</v>
       </c>
       <c r="D12" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E12" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F12" t="s">
         <v>1092</v>
@@ -15834,10 +15861,10 @@
         <v>1516</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>772</v>
@@ -15853,8 +15880,11 @@
       <c r="C14" t="s">
         <v>1519</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>1519</v>
+      </c>
       <c r="E14" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F14" t="s">
         <v>489</v>
@@ -15868,16 +15898,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>1336</v>
+        <v>1588</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1221</v>
+        <v>1589</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="F15" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -15891,10 +15921,10 @@
         <v>1516</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>772</v>
@@ -15908,10 +15938,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>1522</v>
+        <v>1590</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1591</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="F17" t="s">
         <v>1520</v>
@@ -15928,10 +15961,10 @@
         <v>1516</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>772</v>
@@ -15945,10 +15978,13 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>1522</v>
+        <v>1590</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1591</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="F19" t="s">
         <v>1520</v>
@@ -15968,10 +16004,10 @@
         <v>808</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -15985,10 +16021,10 @@
         <v>1516</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>772</v>
@@ -16005,10 +16041,10 @@
         <v>1515</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>1587</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F22" t="s">
         <v>212</v>
@@ -16025,10 +16061,10 @@
         <v>1515</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>1587</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F23" t="s">
         <v>212</v>
@@ -16042,16 +16078,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>1517</v>
+        <v>1590</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1531</v>
+        <v>1591</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F24" t="s">
-        <v>1092</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -16062,16 +16098,16 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>1517</v>
+        <v>1590</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1531</v>
+        <v>1591</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F25" t="s">
-        <v>1092</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -16082,10 +16118,13 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>1522</v>
+        <v>1590</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1591</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="F26" t="s">
         <v>1520</v>
@@ -16099,16 +16138,16 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>1521</v>
+        <v>504</v>
       </c>
       <c r="D27" t="s">
-        <v>1530</v>
+        <v>808</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="F27" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -16119,16 +16158,16 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>980</v>
+        <v>504</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>975</v>
+        <v>808</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -16139,16 +16178,16 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>980</v>
+        <v>504</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>975</v>
+        <v>808</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -16162,10 +16201,10 @@
         <v>1516</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>772</v>
@@ -16179,16 +16218,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F31" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -16199,16 +16238,16 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F32" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -16219,16 +16258,16 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F33" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -16239,16 +16278,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F34" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -16259,16 +16298,16 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F35" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -16279,16 +16318,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F36" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -16299,16 +16338,16 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F37" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -16319,16 +16358,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F38" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -16339,14 +16378,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>1593</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F39" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -16357,16 +16398,16 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F40" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -16377,16 +16418,16 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F41" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -16397,16 +16438,16 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F42" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -16417,16 +16458,16 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F43" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -16437,16 +16478,16 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F44" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -16457,16 +16498,16 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F45" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -16477,16 +16518,16 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F46" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -16497,16 +16538,16 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>1014</v>
+        <v>1592</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1584</v>
+        <v>450</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F47" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -16523,10 +16564,10 @@
         <v>808</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F48" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -16543,10 +16584,10 @@
         <v>808</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F49" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -16557,16 +16598,16 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>1516</v>
+        <v>1590</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1529</v>
+        <v>1591</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>772</v>
+        <v>1561</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -16577,33 +16618,33 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>1516</v>
+        <v>1590</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1529</v>
+        <v>1591</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>772</v>
+        <v>1561</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C52" t="s">
         <v>1580</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>1582</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
   </sheetData>
@@ -16617,7 +16658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684E9DB5-6864-4CCB-B516-676B6091924A}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -16635,51 +16676,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F1" t="s">
         <v>1537</v>
       </c>
-      <c r="B1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1546</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1538</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1539</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1540</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1541</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1542</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1543</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>1544</v>
       </c>
-      <c r="M1" t="s">
-        <v>1545</v>
-      </c>
       <c r="N1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -16688,7 +16729,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16720,16 +16761,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1014</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -16756,21 +16797,21 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>1582</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1583</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -16797,19 +16838,19 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -16836,19 +16877,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1518</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -16880,16 +16921,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1517</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D7" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -16921,16 +16962,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1521</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D8" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -16962,7 +17003,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>980</v>
@@ -16971,7 +17012,7 @@
         <v>975</v>
       </c>
       <c r="D9" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -17003,14 +17044,14 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -17037,12 +17078,12 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>504</v>
@@ -17051,7 +17092,7 @@
         <v>808</v>
       </c>
       <c r="D11" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="F11">
         <v>11</v>
@@ -17083,14 +17124,14 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1519</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -17122,16 +17163,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1516</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D13" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F13">
         <v>7</v>
@@ -17163,7 +17204,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1515</v>
@@ -17172,7 +17213,7 @@
         <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -17204,14 +17245,14 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1336</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F15">
         <v>13</v>
@@ -17238,19 +17279,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>996</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="F16">
         <v>14</v>
@@ -17277,21 +17318,21 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>564</v>
       </c>
       <c r="D17" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -17318,7 +17359,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
   </sheetData>
@@ -17342,13 +17383,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B1" t="s">
         <v>1514</v>
       </c>
       <c r="C1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -17359,7 +17400,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -17370,7 +17411,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -17381,7 +17422,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -17392,7 +17433,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -17403,7 +17444,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -17414,7 +17455,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -17425,7 +17466,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -17436,7 +17477,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -17447,7 +17488,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -17458,7 +17499,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -17469,7 +17510,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -17480,7 +17521,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -17491,7 +17532,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -17502,7 +17543,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -17513,7 +17554,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -17524,7 +17565,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -17535,7 +17576,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -17546,7 +17587,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -17557,7 +17598,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -17568,7 +17609,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -17579,7 +17620,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -17590,7 +17631,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -17601,7 +17642,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -17612,7 +17653,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -17623,7 +17664,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -17634,7 +17675,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -17645,7 +17686,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -17656,7 +17697,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -17667,7 +17708,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -17678,7 +17719,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -17689,7 +17730,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -17700,7 +17741,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -17711,7 +17752,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -17722,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -17733,7 +17774,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -17744,7 +17785,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -17755,7 +17796,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -17766,7 +17807,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -17777,7 +17818,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -17788,7 +17829,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -17799,7 +17840,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -17810,7 +17851,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -17821,7 +17862,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -17832,7 +17873,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -17843,7 +17884,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -17854,7 +17895,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -17865,7 +17906,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -17876,7 +17917,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -17887,7 +17928,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -17898,7 +17939,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -17909,7 +17950,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -17920,7 +17961,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -17931,7 +17972,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -17942,7 +17983,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -17953,7 +17994,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -17964,7 +18005,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -17975,7 +18016,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -17986,7 +18027,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -17997,7 +18038,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
@@ -18008,7 +18049,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -18019,7 +18060,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -18030,7 +18071,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
@@ -18041,7 +18082,7 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
@@ -18052,7 +18093,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -18063,7 +18104,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
@@ -18074,7 +18115,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
@@ -18085,7 +18126,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
@@ -18096,7 +18137,7 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
@@ -18107,7 +18148,7 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
@@ -18118,7 +18159,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
@@ -18129,7 +18170,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
@@ -18140,7 +18181,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -18151,7 +18192,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
@@ -18162,7 +18203,7 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
@@ -18173,7 +18214,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
@@ -18184,7 +18225,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
@@ -18195,7 +18236,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
@@ -18206,7 +18247,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
@@ -18217,7 +18258,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -18228,7 +18269,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
@@ -18239,7 +18280,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
@@ -18250,7 +18291,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
@@ -18261,7 +18302,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
@@ -18272,7 +18313,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
@@ -18283,7 +18324,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
@@ -18294,7 +18335,7 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -18305,7 +18346,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -18316,7 +18357,7 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
@@ -18327,7 +18368,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -18338,7 +18379,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
@@ -18349,7 +18390,7 @@
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
@@ -18360,7 +18401,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
@@ -18371,7 +18412,7 @@
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
@@ -18382,7 +18423,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
@@ -18393,7 +18434,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
@@ -18404,7 +18445,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
@@ -18415,7 +18456,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
@@ -18426,7 +18467,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
@@ -18437,7 +18478,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
@@ -18448,7 +18489,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
@@ -18459,7 +18500,7 @@
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
@@ -18470,7 +18511,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
@@ -18481,7 +18522,7 @@
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
@@ -18492,7 +18533,7 @@
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
@@ -18503,7 +18544,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
@@ -18514,7 +18555,7 @@
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
@@ -18525,7 +18566,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
@@ -18536,7 +18577,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
@@ -18547,7 +18588,7 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
@@ -18558,7 +18599,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
@@ -18569,7 +18610,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
@@ -18580,7 +18621,7 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
@@ -18591,7 +18632,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
@@ -18602,7 +18643,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
@@ -18613,7 +18654,7 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
@@ -18624,7 +18665,7 @@
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
@@ -18635,7 +18676,7 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
@@ -18646,7 +18687,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
@@ -18657,7 +18698,7 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
@@ -18668,7 +18709,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
@@ -18679,7 +18720,7 @@
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
@@ -18690,7 +18731,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
@@ -18701,7 +18742,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
@@ -18712,7 +18753,7 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
@@ -18723,7 +18764,7 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
@@ -18734,7 +18775,7 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
@@ -18745,7 +18786,7 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
@@ -18756,7 +18797,7 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
@@ -18767,7 +18808,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
@@ -18778,7 +18819,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
@@ -18789,7 +18830,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
@@ -18800,7 +18841,7 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
@@ -18811,7 +18852,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
@@ -18822,7 +18863,7 @@
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
@@ -18833,7 +18874,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
@@ -18844,7 +18885,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
@@ -18855,7 +18896,7 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
@@ -18866,7 +18907,7 @@
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
@@ -18877,7 +18918,7 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
@@ -18888,7 +18929,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
@@ -18899,7 +18940,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
@@ -18910,7 +18951,7 @@
         <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
@@ -18921,7 +18962,7 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
@@ -18932,7 +18973,7 @@
         <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
@@ -18943,7 +18984,7 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
@@ -18954,7 +18995,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
@@ -18965,7 +19006,7 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
@@ -18976,7 +19017,7 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
@@ -18987,7 +19028,7 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
@@ -18998,7 +19039,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
@@ -19009,7 +19050,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
@@ -19020,7 +19061,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
@@ -19031,7 +19072,7 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
@@ -19042,7 +19083,7 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
@@ -19053,7 +19094,7 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
@@ -19064,7 +19105,7 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
@@ -19075,7 +19116,7 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
@@ -19086,7 +19127,7 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
@@ -19097,7 +19138,7 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
@@ -19108,7 +19149,7 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
@@ -19119,7 +19160,7 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
@@ -19130,7 +19171,7 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
@@ -19141,7 +19182,7 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
@@ -19152,7 +19193,7 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
@@ -19163,7 +19204,7 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
@@ -19174,7 +19215,7 @@
         <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.45">
@@ -19185,7 +19226,7 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
@@ -19196,7 +19237,7 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
@@ -19207,7 +19248,7 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
@@ -19218,7 +19259,7 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.45">
@@ -19229,7 +19270,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.45">
@@ -19240,7 +19281,7 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.45">
@@ -19251,7 +19292,7 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.45">
@@ -19262,7 +19303,7 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
@@ -19273,7 +19314,7 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.45">
@@ -19284,7 +19325,7 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.45">
@@ -19295,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.45">
@@ -19306,7 +19347,7 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.45">
@@ -19317,7 +19358,7 @@
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.45">
@@ -19328,7 +19369,7 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.45">
@@ -19339,7 +19380,7 @@
         <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.45">
@@ -19350,7 +19391,7 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.45">
@@ -19361,7 +19402,7 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
@@ -19372,7 +19413,7 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
@@ -19383,7 +19424,7 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
@@ -19394,7 +19435,7 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
@@ -19405,7 +19446,7 @@
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
@@ -19416,7 +19457,7 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
@@ -19427,7 +19468,7 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
@@ -19438,7 +19479,7 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
@@ -19449,7 +19490,7 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
@@ -19460,7 +19501,7 @@
         <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
@@ -19471,7 +19512,7 @@
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
@@ -19482,7 +19523,7 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
@@ -19493,7 +19534,7 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
@@ -19504,7 +19545,7 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
@@ -19515,7 +19556,7 @@
         <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
@@ -19526,7 +19567,7 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
@@ -19537,7 +19578,7 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
@@ -19548,7 +19589,7 @@
         <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
@@ -19559,7 +19600,7 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
@@ -19570,7 +19611,7 @@
         <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
@@ -19581,7 +19622,7 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
@@ -19592,7 +19633,7 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
@@ -19603,7 +19644,7 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
@@ -19614,7 +19655,7 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.45">
@@ -19625,7 +19666,7 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.45">
@@ -19636,7 +19677,7 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.45">
@@ -19647,7 +19688,7 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.45">
@@ -19658,7 +19699,7 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.45">
@@ -19669,7 +19710,7 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.45">
@@ -19680,7 +19721,7 @@
         <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.45">
@@ -19691,7 +19732,7 @@
         <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.45">
@@ -19702,7 +19743,7 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.45">
@@ -19713,7 +19754,7 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.45">
@@ -19724,7 +19765,7 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.45">
@@ -19735,7 +19776,7 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.45">
@@ -19746,7 +19787,7 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.45">
@@ -19757,7 +19798,7 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.45">
@@ -19768,7 +19809,7 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
   </sheetData>

--- a/scenario_tocs.xlsx
+++ b/scenario_tocs.xlsx
@@ -8,22 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\xMeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F29878-7344-4A77-9D2C-0D7DE98F3838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF14D2DF-02B1-44D3-BF4A-C6DB2B452EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
-    <sheet name="section_map" sheetId="3" r:id="rId2"/>
-    <sheet name="section_meta" sheetId="7" r:id="rId3"/>
-    <sheet name="Authors" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="section_map" sheetId="3" r:id="rId3"/>
+    <sheet name="section_meta" sheetId="7" r:id="rId4"/>
+    <sheet name="Authors" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Authors!$A$1:$C$221</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">section_map!$A$1:$D$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Authors!$A$1:$C$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">section_map!$A$1:$D$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TOC!$A$1:$L$377</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="1595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4001" uniqueCount="1590">
   <si>
     <t>issue_url</t>
   </si>
@@ -4653,12 +4657,6 @@
     <t>Conference item</t>
   </si>
   <si>
-    <t>Practitioners' Voices</t>
-  </si>
-  <si>
-    <t>Terminology Matters</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -4677,9 +4675,6 @@
     <t>Berichte</t>
   </si>
   <si>
-    <t>Stimmen aus der Praxis</t>
-  </si>
-  <si>
     <t>Filme</t>
   </si>
   <si>
@@ -4740,9 +4735,6 @@
     <t>CA</t>
   </si>
   <si>
-    <t>SV</t>
-  </si>
-  <si>
     <t>ESS</t>
   </si>
   <si>
@@ -4755,15 +4747,9 @@
     <t>TAT</t>
   </si>
   <si>
-    <t>CI</t>
-  </si>
-  <si>
     <t>WOP</t>
   </si>
   <si>
-    <t>PV</t>
-  </si>
-  <si>
     <t>TM</t>
   </si>
   <si>
@@ -4788,9 +4774,6 @@
     <t>cfp</t>
   </si>
   <si>
-    <t>ci</t>
-  </si>
-  <si>
     <t>ess</t>
   </si>
   <si>
@@ -4803,18 +4786,12 @@
     <t>int</t>
   </si>
   <si>
-    <t>pv</t>
-  </si>
-  <si>
     <t>rep</t>
   </si>
   <si>
     <t>rev</t>
   </si>
   <si>
-    <t>sv</t>
-  </si>
-  <si>
     <t>tat</t>
   </si>
   <si>
@@ -4839,12 +4816,6 @@
     <t>art</t>
   </si>
   <si>
-    <t>TuT – Texte ums Theater − TuT</t>
-  </si>
-  <si>
-    <t>Conference Items</t>
-  </si>
-  <si>
     <t>Conference Item</t>
   </si>
   <si>
@@ -4873,6 +4844,24 @@
   </si>
   <si>
     <t>Terminologie</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of ref</t>
+  </si>
+  <si>
+    <t>cc</t>
   </si>
 </sst>
 </file>
@@ -4916,13 +4905,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4938,6 +4928,297 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ó Carragáin, Eoghan" refreshedDate="44126.034985069447" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="52" xr:uid="{937AFA2A-5E6C-444C-951D-62183F9D9D07}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="E1:E1048576" sheet="section_map"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="ref" numFmtId="0">
+      <sharedItems containsBlank="1" count="15">
+        <s v="REP"/>
+        <s v="BIO"/>
+        <s v="FWD"/>
+        <s v="REV"/>
+        <s v="CFP"/>
+        <s v="CA"/>
+        <s v="ESS"/>
+        <s v="FIL"/>
+        <s v="INT"/>
+        <s v="CC"/>
+        <s v="WOP"/>
+        <s v="TAT"/>
+        <s v="TM"/>
+        <s v="ART"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="52">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{11E6CF5C-3969-4A20-9A1A-A3BC2CD2E22E}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="16">
+        <item x="13"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of ref" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5232,13 +5513,13 @@
       <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.73046875" customWidth="1"/>
-    <col min="3" max="3" width="50.06640625" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5276,7 +5557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5287,7 +5568,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -5305,7 +5586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5316,7 +5597,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -5331,7 +5612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5357,7 +5638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5386,7 +5667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5412,7 +5693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5441,7 +5722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5470,7 +5751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5496,7 +5777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -5525,7 +5806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5551,7 +5832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5580,7 +5861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5606,7 +5887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -5617,7 +5898,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -5632,7 +5913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -5643,7 +5924,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -5658,7 +5939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -5687,7 +5968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -5716,7 +5997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -5745,7 +6026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -5771,7 +6052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -5797,7 +6078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -5826,7 +6107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -5852,7 +6133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -5881,7 +6162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -5907,7 +6188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -5918,7 +6199,7 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
@@ -5936,7 +6217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -5947,7 +6228,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F26" t="s">
         <v>79</v>
@@ -5965,7 +6246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -5994,7 +6275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -6023,7 +6304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -6052,7 +6333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -6081,7 +6362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -6110,7 +6391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>124</v>
       </c>
@@ -6139,7 +6420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>124</v>
       </c>
@@ -6165,7 +6446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -6191,7 +6472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -6217,7 +6498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -6228,7 +6509,7 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F36" t="s">
         <v>15</v>
@@ -6243,7 +6524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>168</v>
       </c>
@@ -6254,7 +6535,7 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F37" t="s">
         <v>79</v>
@@ -6269,7 +6550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>168</v>
       </c>
@@ -6298,7 +6579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>168</v>
       </c>
@@ -6327,7 +6608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>168</v>
       </c>
@@ -6356,7 +6637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>168</v>
       </c>
@@ -6382,7 +6663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -6408,7 +6689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>168</v>
       </c>
@@ -6437,7 +6718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -6463,7 +6744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -6492,7 +6773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -6521,7 +6802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>168</v>
       </c>
@@ -6547,7 +6828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>217</v>
       </c>
@@ -6558,7 +6839,7 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
@@ -6573,7 +6854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>217</v>
       </c>
@@ -6584,7 +6865,7 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F49" t="s">
         <v>79</v>
@@ -6599,7 +6880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>217</v>
       </c>
@@ -6628,7 +6909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>217</v>
       </c>
@@ -6657,7 +6938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -6686,7 +6967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>217</v>
       </c>
@@ -6715,7 +6996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>217</v>
       </c>
@@ -6741,7 +7022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>217</v>
       </c>
@@ -6767,7 +7048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>217</v>
       </c>
@@ -6796,7 +7077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>217</v>
       </c>
@@ -6825,7 +7106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -6854,7 +7135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>217</v>
       </c>
@@ -6880,7 +7161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>263</v>
       </c>
@@ -6891,7 +7172,7 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F60" t="s">
         <v>15</v>
@@ -6906,7 +7187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>263</v>
       </c>
@@ -6917,7 +7198,7 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F61" t="s">
         <v>79</v>
@@ -6932,7 +7213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>263</v>
       </c>
@@ -6961,7 +7242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>263</v>
       </c>
@@ -6990,7 +7271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>263</v>
       </c>
@@ -7016,7 +7297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>263</v>
       </c>
@@ -7042,7 +7323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>263</v>
       </c>
@@ -7068,7 +7349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -7094,7 +7375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>263</v>
       </c>
@@ -7123,7 +7404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>263</v>
       </c>
@@ -7152,7 +7433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>263</v>
       </c>
@@ -7178,7 +7459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>306</v>
       </c>
@@ -7189,7 +7470,7 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
@@ -7204,7 +7485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>306</v>
       </c>
@@ -7215,7 +7496,7 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F72" t="s">
         <v>21</v>
@@ -7230,7 +7511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>306</v>
       </c>
@@ -7256,7 +7537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>306</v>
       </c>
@@ -7282,7 +7563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>306</v>
       </c>
@@ -7308,7 +7589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>306</v>
       </c>
@@ -7334,7 +7615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>306</v>
       </c>
@@ -7360,7 +7641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>306</v>
       </c>
@@ -7389,7 +7670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -7415,7 +7696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>306</v>
       </c>
@@ -7441,7 +7722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>343</v>
       </c>
@@ -7452,7 +7733,7 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
@@ -7467,7 +7748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>343</v>
       </c>
@@ -7478,7 +7759,7 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F82" t="s">
         <v>79</v>
@@ -7493,7 +7774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>343</v>
       </c>
@@ -7522,7 +7803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>343</v>
       </c>
@@ -7551,7 +7832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>343</v>
       </c>
@@ -7577,7 +7858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>343</v>
       </c>
@@ -7606,7 +7887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>343</v>
       </c>
@@ -7632,7 +7913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>343</v>
       </c>
@@ -7661,7 +7942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>343</v>
       </c>
@@ -7690,7 +7971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>343</v>
       </c>
@@ -7716,7 +7997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>378</v>
       </c>
@@ -7727,7 +8008,7 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F91" t="s">
         <v>15</v>
@@ -7742,7 +8023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>378</v>
       </c>
@@ -7753,7 +8034,7 @@
         <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F92" t="s">
         <v>79</v>
@@ -7768,7 +8049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>378</v>
       </c>
@@ -7797,7 +8078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>378</v>
       </c>
@@ -7826,7 +8107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>378</v>
       </c>
@@ -7852,7 +8133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>378</v>
       </c>
@@ -7878,7 +8159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>378</v>
       </c>
@@ -7904,7 +8185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>378</v>
       </c>
@@ -7930,7 +8211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>378</v>
       </c>
@@ -7959,7 +8240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>378</v>
       </c>
@@ -7985,7 +8266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>378</v>
       </c>
@@ -8011,7 +8292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>378</v>
       </c>
@@ -8040,7 +8321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>378</v>
       </c>
@@ -8069,7 +8350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>378</v>
       </c>
@@ -8098,7 +8379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>378</v>
       </c>
@@ -8127,7 +8408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>378</v>
       </c>
@@ -8153,7 +8434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>443</v>
       </c>
@@ -8164,7 +8445,7 @@
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F107" t="s">
         <v>15</v>
@@ -8179,7 +8460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>443</v>
       </c>
@@ -8190,7 +8471,7 @@
         <v>20</v>
       </c>
       <c r="D108" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F108" t="s">
         <v>79</v>
@@ -8205,7 +8486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>443</v>
       </c>
@@ -8234,7 +8515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>443</v>
       </c>
@@ -8263,7 +8544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>443</v>
       </c>
@@ -8289,7 +8570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>443</v>
       </c>
@@ -8315,7 +8596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>443</v>
       </c>
@@ -8341,7 +8622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>443</v>
       </c>
@@ -8367,7 +8648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>443</v>
       </c>
@@ -8393,7 +8674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>443</v>
       </c>
@@ -8419,7 +8700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>443</v>
       </c>
@@ -8448,7 +8729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>443</v>
       </c>
@@ -8477,7 +8758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>443</v>
       </c>
@@ -8506,7 +8787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>443</v>
       </c>
@@ -8535,7 +8816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>443</v>
       </c>
@@ -8561,7 +8842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>512</v>
       </c>
@@ -8572,7 +8853,7 @@
         <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F122" t="s">
         <v>15</v>
@@ -8587,7 +8868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>512</v>
       </c>
@@ -8598,7 +8879,7 @@
         <v>20</v>
       </c>
       <c r="D123" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F123" t="s">
         <v>79</v>
@@ -8613,7 +8894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>512</v>
       </c>
@@ -8639,7 +8920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>512</v>
       </c>
@@ -8665,7 +8946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>512</v>
       </c>
@@ -8691,7 +8972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>512</v>
       </c>
@@ -8717,7 +8998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>512</v>
       </c>
@@ -8746,7 +9027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>512</v>
       </c>
@@ -8775,7 +9056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>512</v>
       </c>
@@ -8804,7 +9085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>512</v>
       </c>
@@ -8833,7 +9114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>512</v>
       </c>
@@ -8862,7 +9143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>512</v>
       </c>
@@ -8891,7 +9172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>512</v>
       </c>
@@ -8917,7 +9198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>512</v>
       </c>
@@ -8943,7 +9224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>567</v>
       </c>
@@ -8954,7 +9235,7 @@
         <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F136" t="s">
         <v>15</v>
@@ -8969,7 +9250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>567</v>
       </c>
@@ -8980,7 +9261,7 @@
         <v>20</v>
       </c>
       <c r="D137" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F137" t="s">
         <v>21</v>
@@ -8995,7 +9276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>567</v>
       </c>
@@ -9021,7 +9302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>567</v>
       </c>
@@ -9047,7 +9328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>567</v>
       </c>
@@ -9073,7 +9354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>567</v>
       </c>
@@ -9099,7 +9380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>567</v>
       </c>
@@ -9125,7 +9406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>567</v>
       </c>
@@ -9151,7 +9432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>567</v>
       </c>
@@ -9177,7 +9458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>567</v>
       </c>
@@ -9203,7 +9484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>567</v>
       </c>
@@ -9229,7 +9510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>567</v>
       </c>
@@ -9258,7 +9539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>567</v>
       </c>
@@ -9284,7 +9565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>567</v>
       </c>
@@ -9310,7 +9591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>621</v>
       </c>
@@ -9321,7 +9602,7 @@
         <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F150" t="s">
         <v>15</v>
@@ -9336,7 +9617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>621</v>
       </c>
@@ -9347,7 +9628,7 @@
         <v>20</v>
       </c>
       <c r="D151" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F151" t="s">
         <v>79</v>
@@ -9362,7 +9643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>621</v>
       </c>
@@ -9391,7 +9672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>621</v>
       </c>
@@ -9420,7 +9701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>621</v>
       </c>
@@ -9446,7 +9727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>621</v>
       </c>
@@ -9475,7 +9756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>621</v>
       </c>
@@ -9504,7 +9785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>621</v>
       </c>
@@ -9533,7 +9814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>621</v>
       </c>
@@ -9562,7 +9843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>621</v>
       </c>
@@ -9591,7 +9872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>621</v>
       </c>
@@ -9620,7 +9901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>621</v>
       </c>
@@ -9649,7 +9930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>621</v>
       </c>
@@ -9678,7 +9959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>621</v>
       </c>
@@ -9707,7 +9988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>621</v>
       </c>
@@ -9733,7 +10014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>683</v>
       </c>
@@ -9744,7 +10025,7 @@
         <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F165" t="s">
         <v>15</v>
@@ -9759,7 +10040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>683</v>
       </c>
@@ -9770,7 +10051,7 @@
         <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F166" t="s">
         <v>79</v>
@@ -9785,7 +10066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>683</v>
       </c>
@@ -9814,7 +10095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>683</v>
       </c>
@@ -9843,7 +10124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>683</v>
       </c>
@@ -9869,7 +10150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>683</v>
       </c>
@@ -9895,7 +10176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>683</v>
       </c>
@@ -9921,7 +10202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>683</v>
       </c>
@@ -9947,7 +10228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>683</v>
       </c>
@@ -9976,7 +10257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>683</v>
       </c>
@@ -10002,7 +10283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>683</v>
       </c>
@@ -10031,7 +10312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>683</v>
       </c>
@@ -10060,7 +10341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>683</v>
       </c>
@@ -10089,7 +10370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>683</v>
       </c>
@@ -10118,7 +10399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>683</v>
       </c>
@@ -10144,7 +10425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>735</v>
       </c>
@@ -10155,7 +10436,7 @@
         <v>14</v>
       </c>
       <c r="D180" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F180" t="s">
         <v>15</v>
@@ -10170,7 +10451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>735</v>
       </c>
@@ -10181,7 +10462,7 @@
         <v>20</v>
       </c>
       <c r="D181" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F181" t="s">
         <v>79</v>
@@ -10196,7 +10477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>735</v>
       </c>
@@ -10225,7 +10506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>735</v>
       </c>
@@ -10254,7 +10535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>735</v>
       </c>
@@ -10280,7 +10561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>735</v>
       </c>
@@ -10306,7 +10587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>735</v>
       </c>
@@ -10332,7 +10613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>735</v>
       </c>
@@ -10358,7 +10639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>735</v>
       </c>
@@ -10387,7 +10668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>735</v>
       </c>
@@ -10416,7 +10697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>735</v>
       </c>
@@ -10445,7 +10726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>735</v>
       </c>
@@ -10471,7 +10752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>782</v>
       </c>
@@ -10482,7 +10763,7 @@
         <v>14</v>
       </c>
       <c r="D192" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F192" t="s">
         <v>15</v>
@@ -10497,7 +10778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>782</v>
       </c>
@@ -10508,7 +10789,7 @@
         <v>20</v>
       </c>
       <c r="D193" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F193" t="s">
         <v>21</v>
@@ -10523,7 +10804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>782</v>
       </c>
@@ -10549,7 +10830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>782</v>
       </c>
@@ -10575,7 +10856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>782</v>
       </c>
@@ -10601,7 +10882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>782</v>
       </c>
@@ -10627,7 +10908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>782</v>
       </c>
@@ -10656,7 +10937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>782</v>
       </c>
@@ -10685,7 +10966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>782</v>
       </c>
@@ -10714,7 +10995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>782</v>
       </c>
@@ -10743,7 +11024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>782</v>
       </c>
@@ -10772,7 +11053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>782</v>
       </c>
@@ -10801,7 +11082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>782</v>
       </c>
@@ -10830,7 +11111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>782</v>
       </c>
@@ -10859,7 +11140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>782</v>
       </c>
@@ -10888,7 +11169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>782</v>
       </c>
@@ -10914,7 +11195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>843</v>
       </c>
@@ -10925,7 +11206,7 @@
         <v>845</v>
       </c>
       <c r="D208" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F208" t="s">
         <v>15</v>
@@ -10940,7 +11221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>843</v>
       </c>
@@ -10951,7 +11232,7 @@
         <v>848</v>
       </c>
       <c r="D209" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F209" t="s">
         <v>79</v>
@@ -10966,7 +11247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>843</v>
       </c>
@@ -10992,7 +11273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>843</v>
       </c>
@@ -11021,7 +11302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>843</v>
       </c>
@@ -11047,7 +11328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>843</v>
       </c>
@@ -11079,7 +11360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>843</v>
       </c>
@@ -11105,7 +11386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>843</v>
       </c>
@@ -11131,7 +11412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>843</v>
       </c>
@@ -11157,7 +11438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>843</v>
       </c>
@@ -11183,7 +11464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>843</v>
       </c>
@@ -11209,7 +11490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>843</v>
       </c>
@@ -11238,7 +11519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>843</v>
       </c>
@@ -11267,7 +11548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>843</v>
       </c>
@@ -11293,7 +11574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>902</v>
       </c>
@@ -11304,7 +11585,7 @@
         <v>14</v>
       </c>
       <c r="D222" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F222" t="s">
         <v>26</v>
@@ -11319,7 +11600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>902</v>
       </c>
@@ -11330,7 +11611,7 @@
         <v>20</v>
       </c>
       <c r="D223" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F223" t="s">
         <v>89</v>
@@ -11345,7 +11626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>902</v>
       </c>
@@ -11371,7 +11652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>902</v>
       </c>
@@ -11397,7 +11678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>902</v>
       </c>
@@ -11423,7 +11704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>902</v>
       </c>
@@ -11449,7 +11730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>902</v>
       </c>
@@ -11475,7 +11756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>902</v>
       </c>
@@ -11504,7 +11785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>902</v>
       </c>
@@ -11533,7 +11814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>902</v>
       </c>
@@ -11562,7 +11843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>902</v>
       </c>
@@ -11588,7 +11869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>943</v>
       </c>
@@ -11599,7 +11880,7 @@
         <v>14</v>
       </c>
       <c r="D233" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F233" t="s">
         <v>15</v>
@@ -11614,7 +11895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>943</v>
       </c>
@@ -11625,7 +11906,7 @@
         <v>20</v>
       </c>
       <c r="D234" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F234" t="s">
         <v>79</v>
@@ -11640,7 +11921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>943</v>
       </c>
@@ -11666,7 +11947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>943</v>
       </c>
@@ -11692,7 +11973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>943</v>
       </c>
@@ -11718,7 +11999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>943</v>
       </c>
@@ -11747,7 +12028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>943</v>
       </c>
@@ -11773,7 +12054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>943</v>
       </c>
@@ -11802,7 +12083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>943</v>
       </c>
@@ -11831,7 +12112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>943</v>
       </c>
@@ -11860,7 +12141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>943</v>
       </c>
@@ -11889,7 +12170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>943</v>
       </c>
@@ -11918,7 +12199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>943</v>
       </c>
@@ -11947,7 +12228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>943</v>
       </c>
@@ -11973,7 +12254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>943</v>
       </c>
@@ -11999,7 +12280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>943</v>
       </c>
@@ -12025,7 +12306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1002</v>
       </c>
@@ -12036,7 +12317,7 @@
         <v>14</v>
       </c>
       <c r="D249" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F249" t="s">
         <v>15</v>
@@ -12051,7 +12332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1002</v>
       </c>
@@ -12062,7 +12343,7 @@
         <v>20</v>
       </c>
       <c r="D250" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F250" t="s">
         <v>79</v>
@@ -12077,7 +12358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1002</v>
       </c>
@@ -12106,7 +12387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1002</v>
       </c>
@@ -12135,7 +12416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1002</v>
       </c>
@@ -12161,7 +12442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1002</v>
       </c>
@@ -12187,7 +12468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1002</v>
       </c>
@@ -12213,7 +12494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1002</v>
       </c>
@@ -12239,7 +12520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1002</v>
       </c>
@@ -12268,7 +12549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1002</v>
       </c>
@@ -12297,7 +12578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1002</v>
       </c>
@@ -12326,7 +12607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1002</v>
       </c>
@@ -12355,7 +12636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1002</v>
       </c>
@@ -12384,7 +12665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1002</v>
       </c>
@@ -12413,7 +12694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1002</v>
       </c>
@@ -12442,7 +12723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1002</v>
       </c>
@@ -12471,7 +12752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1002</v>
       </c>
@@ -12500,7 +12781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1002</v>
       </c>
@@ -12526,7 +12807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1081</v>
       </c>
@@ -12537,7 +12818,7 @@
         <v>14</v>
       </c>
       <c r="D267" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F267" t="s">
         <v>15</v>
@@ -12552,7 +12833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1081</v>
       </c>
@@ -12563,7 +12844,7 @@
         <v>20</v>
       </c>
       <c r="D268" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F268" t="s">
         <v>21</v>
@@ -12578,7 +12859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1081</v>
       </c>
@@ -12607,7 +12888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1081</v>
       </c>
@@ -12636,7 +12917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1081</v>
       </c>
@@ -12662,7 +12943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1081</v>
       </c>
@@ -12688,7 +12969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1081</v>
       </c>
@@ -12714,7 +12995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1081</v>
       </c>
@@ -12740,7 +13021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1081</v>
       </c>
@@ -12766,7 +13047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1081</v>
       </c>
@@ -12792,7 +13073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1081</v>
       </c>
@@ -12821,7 +13102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1081</v>
       </c>
@@ -12850,7 +13131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1081</v>
       </c>
@@ -12879,7 +13160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1081</v>
       </c>
@@ -12908,7 +13189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1081</v>
       </c>
@@ -12934,7 +13215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1136</v>
       </c>
@@ -12945,7 +13226,7 @@
         <v>14</v>
       </c>
       <c r="D282" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F282" t="s">
         <v>15</v>
@@ -12960,7 +13241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1136</v>
       </c>
@@ -12971,7 +13252,7 @@
         <v>20</v>
       </c>
       <c r="D283" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F283" t="s">
         <v>79</v>
@@ -12986,7 +13267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1136</v>
       </c>
@@ -13012,7 +13293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1136</v>
       </c>
@@ -13041,7 +13322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1136</v>
       </c>
@@ -13070,7 +13351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1136</v>
       </c>
@@ -13096,7 +13377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1136</v>
       </c>
@@ -13125,7 +13406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1136</v>
       </c>
@@ -13154,7 +13435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1136</v>
       </c>
@@ -13183,7 +13464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1136</v>
       </c>
@@ -13212,7 +13493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1136</v>
       </c>
@@ -13238,7 +13519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1177</v>
       </c>
@@ -13249,7 +13530,7 @@
         <v>14</v>
       </c>
       <c r="D293" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F293" t="s">
         <v>15</v>
@@ -13264,7 +13545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1177</v>
       </c>
@@ -13275,7 +13556,7 @@
         <v>20</v>
       </c>
       <c r="D294" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F294" t="s">
         <v>79</v>
@@ -13290,7 +13571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1177</v>
       </c>
@@ -13316,7 +13597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1177</v>
       </c>
@@ -13342,7 +13623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1177</v>
       </c>
@@ -13368,7 +13649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1177</v>
       </c>
@@ -13394,7 +13675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1177</v>
       </c>
@@ -13423,7 +13704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1177</v>
       </c>
@@ -13452,7 +13733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1177</v>
       </c>
@@ -13481,7 +13762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1177</v>
       </c>
@@ -13510,7 +13791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1177</v>
       </c>
@@ -13539,7 +13820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1177</v>
       </c>
@@ -13565,7 +13846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1177</v>
       </c>
@@ -13594,7 +13875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1177</v>
       </c>
@@ -13620,7 +13901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1230</v>
       </c>
@@ -13631,7 +13912,7 @@
         <v>14</v>
       </c>
       <c r="D307" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F307" t="s">
         <v>15</v>
@@ -13646,7 +13927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1230</v>
       </c>
@@ -13657,7 +13938,7 @@
         <v>20</v>
       </c>
       <c r="D308" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F308" t="s">
         <v>79</v>
@@ -13672,7 +13953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1230</v>
       </c>
@@ -13698,7 +13979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1230</v>
       </c>
@@ -13724,7 +14005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1230</v>
       </c>
@@ -13750,7 +14031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1230</v>
       </c>
@@ -13779,7 +14060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1230</v>
       </c>
@@ -13805,7 +14086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1230</v>
       </c>
@@ -13831,7 +14112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1230</v>
       </c>
@@ -13860,7 +14141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1230</v>
       </c>
@@ -13889,7 +14170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1230</v>
       </c>
@@ -13918,7 +14199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1230</v>
       </c>
@@ -13947,7 +14228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1230</v>
       </c>
@@ -13976,7 +14257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1230</v>
       </c>
@@ -14005,7 +14286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1230</v>
       </c>
@@ -14034,7 +14315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1230</v>
       </c>
@@ -14063,7 +14344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1230</v>
       </c>
@@ -14092,7 +14373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1230</v>
       </c>
@@ -14121,7 +14402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1230</v>
       </c>
@@ -14150,7 +14431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1230</v>
       </c>
@@ -14179,7 +14460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1230</v>
       </c>
@@ -14208,7 +14489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1230</v>
       </c>
@@ -14237,7 +14518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1230</v>
       </c>
@@ -14266,7 +14547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1230</v>
       </c>
@@ -14295,7 +14576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1230</v>
       </c>
@@ -14324,7 +14605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1230</v>
       </c>
@@ -14350,7 +14631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1230</v>
       </c>
@@ -14376,7 +14657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1342</v>
       </c>
@@ -14387,7 +14668,7 @@
         <v>1344</v>
       </c>
       <c r="D334" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F334" t="s">
         <v>15</v>
@@ -14402,7 +14683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1342</v>
       </c>
@@ -14428,7 +14709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1342</v>
       </c>
@@ -14454,7 +14735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1342</v>
       </c>
@@ -14480,7 +14761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1342</v>
       </c>
@@ -14506,7 +14787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1342</v>
       </c>
@@ -14532,7 +14813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1342</v>
       </c>
@@ -14561,7 +14842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1342</v>
       </c>
@@ -14590,7 +14871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1342</v>
       </c>
@@ -14619,7 +14900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1342</v>
       </c>
@@ -14648,7 +14929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1342</v>
       </c>
@@ -14677,7 +14958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1342</v>
       </c>
@@ -14706,7 +14987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1342</v>
       </c>
@@ -14735,7 +15016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1342</v>
       </c>
@@ -14761,7 +15042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1342</v>
       </c>
@@ -14787,7 +15068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1342</v>
       </c>
@@ -14813,7 +15094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1400</v>
       </c>
@@ -14824,7 +15105,7 @@
         <v>1344</v>
       </c>
       <c r="D350" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F350" t="s">
         <v>15</v>
@@ -14839,7 +15120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1400</v>
       </c>
@@ -14868,7 +15149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1400</v>
       </c>
@@ -14897,7 +15178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1400</v>
       </c>
@@ -14926,7 +15207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1400</v>
       </c>
@@ -14955,7 +15236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1400</v>
       </c>
@@ -14984,7 +15265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1400</v>
       </c>
@@ -15010,7 +15291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1400</v>
       </c>
@@ -15036,7 +15317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1400</v>
       </c>
@@ -15062,7 +15343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1400</v>
       </c>
@@ -15088,7 +15369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1400</v>
       </c>
@@ -15114,7 +15395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1400</v>
       </c>
@@ -15140,7 +15421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1400</v>
       </c>
@@ -15166,7 +15447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1400</v>
       </c>
@@ -15195,7 +15476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1400</v>
       </c>
@@ -15221,7 +15502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1461</v>
       </c>
@@ -15232,7 +15513,7 @@
         <v>1463</v>
       </c>
       <c r="D365" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="F365" t="s">
         <v>15</v>
@@ -15247,7 +15528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1461</v>
       </c>
@@ -15273,7 +15554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1461</v>
       </c>
@@ -15299,7 +15580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1461</v>
       </c>
@@ -15325,7 +15606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1461</v>
       </c>
@@ -15351,7 +15632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1461</v>
       </c>
@@ -15377,7 +15658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1461</v>
       </c>
@@ -15406,7 +15687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1461</v>
       </c>
@@ -15435,7 +15716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1461</v>
       </c>
@@ -15464,7 +15745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1461</v>
       </c>
@@ -15493,7 +15774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1461</v>
       </c>
@@ -15522,7 +15803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1461</v>
       </c>
@@ -15551,7 +15832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1461</v>
       </c>
@@ -15594,23 +15875,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8404BF3B-096A-40BD-B5B1-83ACF733B80C}">
+  <dimension ref="A3:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A4:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B15" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B19" s="2">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F625CC-18F4-4775-BC1F-D600E757741E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
-    <col min="2" max="2" width="8.9296875" customWidth="1"/>
-    <col min="3" max="3" width="29.9296875" customWidth="1"/>
-    <col min="4" max="5" width="28.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -15618,19 +16052,19 @@
         <v>1514</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>767</v>
       </c>
@@ -15641,16 +16075,16 @@
         <v>1516</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -15658,21 +16092,21 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="D3" t="s">
         <v>564</v>
       </c>
       <c r="E3" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="F3" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="B4" s="2">
         <v>51</v>
@@ -15684,13 +16118,13 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="F4" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1168</v>
       </c>
@@ -15701,16 +16135,16 @@
         <v>1515</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1587</v>
+        <v>1576</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="F5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>996</v>
       </c>
@@ -15724,13 +16158,13 @@
         <v>996</v>
       </c>
       <c r="E6" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="F6" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1336</v>
       </c>
@@ -15744,13 +16178,13 @@
         <v>1221</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="F7" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>729</v>
       </c>
@@ -15761,16 +16195,16 @@
         <v>1516</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1200</v>
       </c>
@@ -15781,16 +16215,16 @@
         <v>1516</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1051</v>
       </c>
@@ -15801,16 +16235,16 @@
         <v>1516</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>929</v>
       </c>
@@ -15824,13 +16258,13 @@
         <v>1518</v>
       </c>
       <c r="E11" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="F11" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1092</v>
       </c>
@@ -15841,16 +16275,16 @@
         <v>1517</v>
       </c>
       <c r="D12" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="E12" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="F12" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1035</v>
       </c>
@@ -15861,16 +16295,16 @@
         <v>1516</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>489</v>
       </c>
@@ -15884,13 +16318,13 @@
         <v>1519</v>
       </c>
       <c r="E14" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="F14" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1221</v>
       </c>
@@ -15898,19 +16332,19 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>1588</v>
+        <v>1577</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1589</v>
+        <v>1578</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="F15" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>659</v>
       </c>
@@ -15921,16 +16355,16 @@
         <v>1516</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1305</v>
       </c>
@@ -15938,19 +16372,19 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1555</v>
+        <v>1584</v>
       </c>
       <c r="F17" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1046</v>
       </c>
@@ -15961,16 +16395,16 @@
         <v>1516</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1266</v>
       </c>
@@ -15978,19 +16412,19 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1555</v>
+        <v>1584</v>
       </c>
       <c r="F19" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>808</v>
       </c>
@@ -16004,13 +16438,13 @@
         <v>808</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>772</v>
       </c>
@@ -16021,16 +16455,16 @@
         <v>1516</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>212</v>
       </c>
@@ -16041,16 +16475,16 @@
         <v>1515</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1587</v>
+        <v>1576</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="F22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -16061,16 +16495,16 @@
         <v>1515</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1587</v>
+        <v>1576</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="F23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>832</v>
       </c>
@@ -16078,19 +16512,19 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1552</v>
+        <v>1584</v>
       </c>
       <c r="F24" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1249</v>
       </c>
@@ -16098,19 +16532,19 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1552</v>
+        <v>1584</v>
       </c>
       <c r="F25" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1283</v>
       </c>
@@ -16118,19 +16552,19 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1555</v>
+        <v>1584</v>
       </c>
       <c r="F26" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>417</v>
       </c>
@@ -16144,13 +16578,13 @@
         <v>808</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="F27" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>975</v>
       </c>
@@ -16164,13 +16598,13 @@
         <v>808</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>980</v>
       </c>
@@ -16184,13 +16618,13 @@
         <v>808</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1261</v>
       </c>
@@ -16201,16 +16635,16 @@
         <v>1516</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>633</v>
       </c>
@@ -16218,19 +16652,19 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F31" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1014</v>
       </c>
@@ -16238,19 +16672,19 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F32" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1225</v>
       </c>
@@ -16258,19 +16692,19 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F33" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>747</v>
       </c>
@@ -16278,19 +16712,19 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F34" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>88</v>
       </c>
@@ -16298,19 +16732,19 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F35" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>388</v>
       </c>
@@ -16318,19 +16752,19 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F36" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>274</v>
       </c>
@@ -16338,19 +16772,19 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F37" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>229</v>
       </c>
@@ -16358,19 +16792,19 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F38" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1490</v>
       </c>
@@ -16378,19 +16812,19 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>1593</v>
+        <v>1582</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1594</v>
+        <v>1583</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="F39" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>450</v>
       </c>
@@ -16398,19 +16832,19 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F40" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>455</v>
       </c>
@@ -16418,19 +16852,19 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F41" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>742</v>
       </c>
@@ -16438,19 +16872,19 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F42" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
@@ -16458,19 +16892,19 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F43" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>313</v>
       </c>
@@ -16478,19 +16912,19 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F44" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>1009</v>
       </c>
@@ -16498,19 +16932,19 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F45" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>628</v>
       </c>
@@ -16518,19 +16952,19 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F46" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>224</v>
       </c>
@@ -16538,19 +16972,19 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F47" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>504</v>
       </c>
@@ -16564,13 +16998,13 @@
         <v>808</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="F48" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>411</v>
       </c>
@@ -16584,13 +17018,13 @@
         <v>808</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="F49" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1288</v>
       </c>
@@ -16598,19 +17032,19 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1561</v>
+        <v>1584</v>
       </c>
       <c r="F50" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1275</v>
       </c>
@@ -16618,33 +17052,33 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1561</v>
+        <v>1584</v>
       </c>
       <c r="F51" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="C52" t="s">
-        <v>1580</v>
+        <v>1571</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1578</v>
+        <v>1569</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
   </sheetData>
@@ -16654,73 +17088,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684E9DB5-6864-4CCB-B516-676B6091924A}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.59765625" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.1328125" customWidth="1"/>
-    <col min="10" max="10" width="20.265625" customWidth="1"/>
-    <col min="11" max="11" width="18.46484375" customWidth="1"/>
-    <col min="12" max="12" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H1" t="s">
         <v>1536</v>
       </c>
-      <c r="B1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1546</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>1537</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>1538</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>1539</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>1540</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>1541</v>
       </c>
-      <c r="K1" t="s">
-        <v>1542</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1543</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1544</v>
-      </c>
       <c r="N1" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -16729,7 +17165,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>1569</v>
+        <v>1562</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16759,18 +17195,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1014</v>
+        <v>1581</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1583</v>
+        <v>450</v>
       </c>
       <c r="D3" t="s">
-        <v>1575</v>
+        <v>1566</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -16797,21 +17233,21 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1578</v>
+        <v>1569</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1580</v>
+        <v>1571</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
       <c r="D4" t="s">
-        <v>1582</v>
+        <v>1573</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -16838,19 +17274,21 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1555</v>
+        <v>1584</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>1579</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1580</v>
+      </c>
       <c r="D5" t="s">
-        <v>1566</v>
+        <v>1589</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -16877,19 +17315,21 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>1518</v>
+      </c>
       <c r="D6" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -16919,18 +17359,18 @@
         <v>929</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1517</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="D7" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -16960,21 +17400,21 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1521</v>
+        <v>1582</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1529</v>
+        <v>1583</v>
       </c>
       <c r="D8" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -16998,24 +17438,24 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>980</v>
+        <v>504</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>975</v>
+        <v>808</v>
       </c>
       <c r="D9" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -17042,19 +17482,21 @@
         <v>772</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1558</v>
+        <v>1549</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>1519</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1519</v>
+      </c>
       <c r="D10" t="s">
-        <v>1576</v>
+        <v>1563</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -17078,24 +17520,24 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>504</v>
+        <v>1516</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>808</v>
+        <v>1526</v>
       </c>
       <c r="D11" t="s">
-        <v>1577</v>
+        <v>1564</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -17122,19 +17564,21 @@
         <v>772</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>1515</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1576</v>
+      </c>
       <c r="D12" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -17158,30 +17602,30 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1561</v>
+        <v>1546</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1516</v>
+        <v>1336</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1528</v>
+        <v>1578</v>
       </c>
       <c r="D13" t="s">
-        <v>1572</v>
+        <v>1558</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -17193,36 +17637,36 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1515</v>
+        <v>996</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>996</v>
       </c>
       <c r="D14" t="s">
-        <v>1573</v>
+        <v>1559</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -17234,28 +17678,30 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1549</v>
+        <v>1556</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>1525</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>564</v>
+      </c>
       <c r="D15" t="s">
-        <v>1564</v>
+        <v>1557</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -17279,87 +17725,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" t="s">
-        <v>1565</v>
-      </c>
-      <c r="F16">
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1563</v>
-      </c>
-      <c r="F17">
-        <v>15</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>1586</v>
+        <v>1575</v>
       </c>
     </row>
   </sheetData>
@@ -17368,7 +17734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95C75DF-C03C-4B37-A2AD-8B8BDB591894}">
   <dimension ref="A1:C221"/>
   <sheetViews>
@@ -17376,23 +17742,23 @@
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.53125" customWidth="1"/>
+    <col min="1" max="1" width="93.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B1" t="s">
         <v>1514</v>
       </c>
       <c r="C1" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1036</v>
       </c>
@@ -17400,10 +17766,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>934</v>
       </c>
@@ -17411,10 +17777,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>328</v>
       </c>
@@ -17422,10 +17788,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1455</v>
       </c>
@@ -17433,10 +17799,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1026</v>
       </c>
@@ -17444,10 +17810,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>768</v>
       </c>
@@ -17455,10 +17821,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>813</v>
       </c>
@@ -17466,10 +17832,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
@@ -17477,10 +17843,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>700</v>
       </c>
@@ -17488,10 +17854,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>438</v>
       </c>
@@ -17499,10 +17865,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>519</v>
       </c>
@@ -17510,10 +17876,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>287</v>
       </c>
@@ -17521,10 +17887,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1052</v>
       </c>
@@ -17532,10 +17898,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>751</v>
       </c>
@@ -17543,10 +17909,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1188</v>
       </c>
@@ -17554,10 +17920,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1429</v>
       </c>
@@ -17565,10 +17931,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1360</v>
       </c>
@@ -17576,10 +17942,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>917</v>
       </c>
@@ -17587,10 +17953,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1486</v>
       </c>
@@ -17598,10 +17964,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1301</v>
       </c>
@@ -17609,10 +17975,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -17620,10 +17986,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>950</v>
       </c>
@@ -17631,10 +17997,10 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17642,10 +18008,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>801</v>
       </c>
@@ -17653,10 +18019,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1413</v>
       </c>
@@ -17664,10 +18030,10 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>654</v>
       </c>
@@ -17675,10 +18041,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>270</v>
       </c>
@@ -17686,10 +18052,10 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>451</v>
       </c>
@@ -17697,10 +18063,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>412</v>
       </c>
@@ -17708,10 +18074,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>429</v>
       </c>
@@ -17719,10 +18085,10 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>282</v>
       </c>
@@ -17730,10 +18096,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1297</v>
       </c>
@@ -17741,10 +18107,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>234</v>
       </c>
@@ -17752,10 +18118,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>809</v>
       </c>
@@ -17763,10 +18129,10 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>118</v>
       </c>
@@ -17774,10 +18140,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1254</v>
       </c>
@@ -17785,10 +18151,10 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>179</v>
       </c>
@@ -17796,10 +18162,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1041</v>
       </c>
@@ -17807,10 +18173,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1481</v>
       </c>
@@ -17818,10 +18184,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>36</v>
       </c>
@@ -17829,10 +18195,10 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -17840,10 +18206,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>856</v>
       </c>
@@ -17851,10 +18217,10 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>397</v>
       </c>
@@ -17862,10 +18228,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>797</v>
       </c>
@@ -17873,10 +18239,10 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1425</v>
       </c>
@@ -17884,10 +18250,10 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1112</v>
       </c>
@@ -17895,10 +18261,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>113</v>
       </c>
@@ -17906,10 +18272,10 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>292</v>
       </c>
@@ -17917,10 +18283,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>495</v>
       </c>
@@ -17928,10 +18294,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -17939,10 +18305,10 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>84</v>
       </c>
@@ -17950,10 +18316,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1047</v>
       </c>
@@ -17961,10 +18327,10 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>870</v>
       </c>
@@ -17972,10 +18338,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>103</v>
       </c>
@@ -17983,10 +18349,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>793</v>
       </c>
@@ -17994,10 +18360,10 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>527</v>
       </c>
@@ -18005,10 +18371,10 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>909</v>
       </c>
@@ -18016,10 +18382,10 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>992</v>
       </c>
@@ -18027,10 +18393,10 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>1324</v>
       </c>
@@ -18038,10 +18404,10 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>460</v>
       </c>
@@ -18049,10 +18415,10 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1310</v>
       </c>
@@ -18060,10 +18426,10 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>484</v>
       </c>
@@ -18071,10 +18437,10 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>593</v>
       </c>
@@ -18082,10 +18448,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>763</v>
       </c>
@@ -18093,10 +18459,10 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>1352</v>
       </c>
@@ -18104,10 +18470,10 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>1237</v>
       </c>
@@ -18115,10 +18481,10 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>238</v>
       </c>
@@ -18126,10 +18492,10 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>1348</v>
       </c>
@@ -18137,10 +18503,10 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1075</v>
       </c>
@@ -18148,10 +18514,10 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>589</v>
       </c>
@@ -18159,10 +18525,10 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>480</v>
       </c>
@@ -18170,10 +18536,10 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>584</v>
       </c>
@@ -18181,10 +18547,10 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>392</v>
       </c>
@@ -18192,10 +18558,10 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>1163</v>
       </c>
@@ -18203,10 +18569,10 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>987</v>
       </c>
@@ -18214,10 +18580,10 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>1173</v>
       </c>
@@ -18225,10 +18591,10 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>153</v>
       </c>
@@ -18236,10 +18602,10 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>175</v>
       </c>
@@ -18247,10 +18613,10 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>773</v>
       </c>
@@ -18258,10 +18624,10 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>456</v>
       </c>
@@ -18269,10 +18635,10 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>610</v>
       </c>
@@ -18280,10 +18646,10 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1433</v>
       </c>
@@ -18291,10 +18657,10 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>696</v>
       </c>
@@ -18302,10 +18668,10 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>202</v>
       </c>
@@ -18313,10 +18679,10 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>669</v>
       </c>
@@ -18324,10 +18690,10 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>207</v>
       </c>
@@ -18335,10 +18701,10 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>465</v>
       </c>
@@ -18346,10 +18712,10 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>225</v>
       </c>
@@ -18357,10 +18723,10 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>1150</v>
       </c>
@@ -18368,10 +18734,10 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1388</v>
       </c>
@@ -18379,10 +18745,10 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>777</v>
       </c>
@@ -18390,10 +18756,10 @@
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>323</v>
       </c>
@@ -18401,10 +18767,10 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>690</v>
       </c>
@@ -18412,10 +18778,10 @@
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>1226</v>
       </c>
@@ -18423,10 +18789,10 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>828</v>
       </c>
@@ -18434,10 +18800,10 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>1116</v>
       </c>
@@ -18445,10 +18811,10 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>601</v>
       </c>
@@ -18456,10 +18822,10 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>1381</v>
       </c>
@@ -18467,10 +18833,10 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>1319</v>
       </c>
@@ -18478,10 +18844,10 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>197</v>
       </c>
@@ -18489,10 +18855,10 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>629</v>
       </c>
@@ -18500,10 +18866,10 @@
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>213</v>
       </c>
@@ -18511,10 +18877,10 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>852</v>
       </c>
@@ -18522,10 +18888,10 @@
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>755</v>
       </c>
@@ -18533,10 +18899,10 @@
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>539</v>
       </c>
@@ -18544,10 +18910,10 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>640</v>
       </c>
@@ -18555,10 +18921,10 @@
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1097</v>
       </c>
@@ -18566,10 +18932,10 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>242</v>
       </c>
@@ -18577,10 +18943,10 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1477</v>
       </c>
@@ -18588,10 +18954,10 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>301</v>
       </c>
@@ -18599,10 +18965,10 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>614</v>
       </c>
@@ -18610,10 +18976,10 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>957</v>
       </c>
@@ -18621,10 +18987,10 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>1245</v>
       </c>
@@ -18632,10 +18998,10 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>192</v>
       </c>
@@ -18643,10 +19009,10 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>882</v>
       </c>
@@ -18654,10 +19020,10 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>1088</v>
       </c>
@@ -18665,10 +19031,10 @@
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>708</v>
       </c>
@@ -18676,10 +19042,10 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>1105</v>
       </c>
@@ -18687,10 +19053,10 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>1377</v>
       </c>
@@ -18698,10 +19064,10 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>821</v>
       </c>
@@ -18709,10 +19075,10 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1010</v>
       </c>
@@ -18720,10 +19086,10 @@
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>704</v>
       </c>
@@ -18731,10 +19097,10 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>597</v>
       </c>
@@ -18742,10 +19108,10 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>357</v>
       </c>
@@ -18753,10 +19119,10 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>556</v>
       </c>
@@ -18764,10 +19130,10 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>61</v>
       </c>
@@ -18775,10 +19141,10 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>1196</v>
       </c>
@@ -18786,10 +19152,10 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>718</v>
       </c>
@@ -18797,10 +19163,10 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>51</v>
       </c>
@@ -18808,10 +19174,10 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>605</v>
       </c>
@@ -18819,10 +19185,10 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>158</v>
       </c>
@@ -18830,10 +19196,10 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>142</v>
       </c>
@@ -18841,10 +19207,10 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>860</v>
       </c>
@@ -18852,10 +19218,10 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>976</v>
       </c>
@@ -18863,10 +19229,10 @@
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1250</v>
       </c>
@@ -18874,10 +19240,10 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>434</v>
       </c>
@@ -18885,10 +19251,10 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>1022</v>
       </c>
@@ -18896,10 +19262,10 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>743</v>
       </c>
@@ -18907,10 +19273,10 @@
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>1192</v>
       </c>
@@ -18918,10 +19284,10 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>93</v>
       </c>
@@ -18929,10 +19295,10 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>1409</v>
       </c>
@@ -18940,10 +19306,10 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>551</v>
       </c>
@@ -18951,10 +19317,10 @@
         <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>730</v>
       </c>
@@ -18962,10 +19328,10 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>385</v>
       </c>
@@ -18973,10 +19339,10 @@
         <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>138</v>
       </c>
@@ -18984,10 +19350,10 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>1209</v>
       </c>
@@ -18995,10 +19361,10 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>921</v>
       </c>
@@ -19006,10 +19372,10 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>1271</v>
       </c>
@@ -19017,10 +19383,10 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>649</v>
       </c>
@@ -19028,10 +19394,10 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>1421</v>
       </c>
@@ -19039,10 +19405,10 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>1101</v>
       </c>
@@ -19050,10 +19416,10 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>789</v>
       </c>
@@ -19061,10 +19427,10 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>833</v>
       </c>
@@ -19072,10 +19438,10 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>187</v>
       </c>
@@ -19083,10 +19449,10 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>580</v>
       </c>
@@ -19094,10 +19460,10 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19105,10 +19471,10 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>1306</v>
       </c>
@@ -19116,10 +19482,10 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>660</v>
       </c>
@@ -19127,10 +19493,10 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>1060</v>
       </c>
@@ -19138,10 +19504,10 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>967</v>
       </c>
@@ -19149,10 +19515,10 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>817</v>
       </c>
@@ -19160,10 +19526,10 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>1093</v>
       </c>
@@ -19171,10 +19537,10 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>875</v>
       </c>
@@ -19182,10 +19548,10 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>1201</v>
       </c>
@@ -19193,10 +19559,10 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>1331</v>
       </c>
@@ -19204,10 +19570,10 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>131</v>
       </c>
@@ -19215,10 +19581,10 @@
         <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>1154</v>
       </c>
@@ -19226,10 +19592,10 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>865</v>
       </c>
@@ -19237,10 +19603,10 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>499</v>
       </c>
@@ -19248,10 +19614,10 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>337</v>
       </c>
@@ -19259,10 +19625,10 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>490</v>
       </c>
@@ -19270,10 +19636,10 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>1018</v>
       </c>
@@ -19281,10 +19647,10 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>962</v>
       </c>
@@ -19292,10 +19658,10 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>1314</v>
       </c>
@@ -19303,10 +19669,10 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>1276</v>
       </c>
@@ -19314,10 +19680,10 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>544</v>
       </c>
@@ -19325,10 +19691,10 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>470</v>
       </c>
@@ -19336,10 +19702,10 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>891</v>
       </c>
@@ -19347,10 +19713,10 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>1241</v>
       </c>
@@ -19358,10 +19724,10 @@
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>1056</v>
       </c>
@@ -19369,10 +19735,10 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>250</v>
       </c>
@@ -19380,10 +19746,10 @@
         <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>1169</v>
       </c>
@@ -19391,10 +19757,10 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>1356</v>
       </c>
@@ -19402,10 +19768,10 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>25</v>
       </c>
@@ -19413,10 +19779,10 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>1495</v>
       </c>
@@ -19424,10 +19790,10 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>475</v>
       </c>
@@ -19435,10 +19801,10 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>838</v>
       </c>
@@ -19446,10 +19812,10 @@
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>1445</v>
       </c>
@@ -19457,10 +19823,10 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>971</v>
       </c>
@@ -19468,10 +19834,10 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>1184</v>
       </c>
@@ -19479,10 +19845,10 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>108</v>
       </c>
@@ -19490,10 +19856,10 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>664</v>
       </c>
@@ -19501,10 +19867,10 @@
         <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>402</v>
       </c>
@@ -19512,10 +19878,10 @@
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>1070</v>
       </c>
@@ -19523,10 +19889,10 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>1500</v>
       </c>
@@ -19534,10 +19900,10 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>677</v>
       </c>
@@ -19545,10 +19911,10 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>147</v>
       </c>
@@ -19556,10 +19922,10 @@
         <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>368</v>
       </c>
@@ -19567,10 +19933,10 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>1450</v>
       </c>
@@ -19578,10 +19944,10 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>505</v>
       </c>
@@ -19589,10 +19955,10 @@
         <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>1158</v>
       </c>
@@ -19600,10 +19966,10 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>350</v>
       </c>
@@ -19611,10 +19977,10 @@
         <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>645</v>
       </c>
@@ -19622,10 +19988,10 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>1217</v>
       </c>
@@ -19633,10 +19999,10 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>1120</v>
       </c>
@@ -19644,10 +20010,10 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>41</v>
       </c>
@@ -19655,10 +20021,10 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>46</v>
       </c>
@@ -19666,10 +20032,10 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>1417</v>
       </c>
@@ -19677,10 +20043,10 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>1405</v>
       </c>
@@ -19688,10 +20054,10 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>1292</v>
       </c>
@@ -19699,10 +20065,10 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>925</v>
       </c>
@@ -19710,10 +20076,10 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>364</v>
       </c>
@@ -19721,10 +20087,10 @@
         <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>1127</v>
       </c>
@@ -19732,10 +20098,10 @@
         <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>278</v>
       </c>
@@ -19743,10 +20109,10 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>1441</v>
       </c>
@@ -19754,10 +20120,10 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>1470</v>
       </c>
@@ -19765,10 +20131,10 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>319</v>
       </c>
@@ -19776,10 +20142,10 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>532</v>
       </c>
@@ -19787,10 +20153,10 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>1146</v>
       </c>
@@ -19798,10 +20164,10 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>1030</v>
       </c>
@@ -19809,7 +20175,7 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
   </sheetData>

--- a/scenario_tocs.xlsx
+++ b/scenario_tocs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\xMeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF14D2DF-02B1-44D3-BF4A-C6DB2B452EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04D4AAC-012A-4898-A062-C034387CB130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5126,7 +5126,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{11E6CF5C-3969-4A20-9A1A-A3BC2CD2E22E}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{11E6CF5C-3969-4A20-9A1A-A3BC2CD2E22E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -17093,7 +17093,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17189,7 +17189,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N2" t="s">
         <v>14</v>
@@ -17230,7 +17230,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N3" t="s">
         <v>1530</v>
@@ -17271,7 +17271,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N4" t="s">
         <v>1530</v>
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -17312,7 +17312,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N5" t="s">
         <v>1574</v>
@@ -17353,7 +17353,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N6" t="s">
         <v>929</v>
@@ -17394,7 +17394,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N7" t="s">
         <v>1092</v>
@@ -17435,7 +17435,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N8" t="s">
         <v>1530</v>
@@ -17476,7 +17476,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N9" t="s">
         <v>772</v>
@@ -17517,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N10" t="s">
         <v>489</v>
@@ -17558,7 +17558,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N11" t="s">
         <v>772</v>
@@ -17599,7 +17599,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N12" t="s">
         <v>212</v>

--- a/scenario_tocs.xlsx
+++ b/scenario_tocs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\xMeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04D4AAC-012A-4898-A062-C034387CB130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0F769A-5A62-47B3-A952-C7591FDEF484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -5506,20 +5506,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L377"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="54.73046875" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5557,7 +5556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5586,7 +5585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5612,7 +5611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5693,7 +5692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5722,7 +5721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5777,7 +5776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5861,7 +5860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -5913,7 +5912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -5939,7 +5938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -5968,7 +5967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -5997,7 +5996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -6026,7 +6025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -6052,7 +6051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -6133,7 +6132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -6162,7 +6161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -6217,7 +6216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -6246,7 +6245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -6275,7 +6274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -6304,7 +6303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -6333,7 +6332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -6362,7 +6361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -6391,7 +6390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>124</v>
       </c>
@@ -6420,7 +6419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>124</v>
       </c>
@@ -6446,7 +6445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -6472,7 +6471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -6498,7 +6497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -6524,7 +6523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>168</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>168</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>168</v>
       </c>
@@ -6608,7 +6607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>168</v>
       </c>
@@ -6637,7 +6636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>168</v>
       </c>
@@ -6663,7 +6662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -6689,7 +6688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>168</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -6744,7 +6743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -6773,7 +6772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -6802,7 +6801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>168</v>
       </c>
@@ -6828,7 +6827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>217</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>217</v>
       </c>
@@ -6880,7 +6879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>217</v>
       </c>
@@ -6909,7 +6908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>217</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -6967,7 +6966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>217</v>
       </c>
@@ -6996,7 +6995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>217</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>217</v>
       </c>
@@ -7048,7 +7047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>217</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>217</v>
       </c>
@@ -7106,7 +7105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -7135,7 +7134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>217</v>
       </c>
@@ -7161,7 +7160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>263</v>
       </c>
@@ -7187,7 +7186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>263</v>
       </c>
@@ -7213,7 +7212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>263</v>
       </c>
@@ -7242,7 +7241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>263</v>
       </c>
@@ -7271,7 +7270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>263</v>
       </c>
@@ -7297,7 +7296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>263</v>
       </c>
@@ -7323,7 +7322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>263</v>
       </c>
@@ -7349,7 +7348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -7375,7 +7374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>263</v>
       </c>
@@ -7404,7 +7403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>263</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>263</v>
       </c>
@@ -7459,7 +7458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>306</v>
       </c>
@@ -7485,7 +7484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>306</v>
       </c>
@@ -7511,7 +7510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>306</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>306</v>
       </c>
@@ -7563,7 +7562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>306</v>
       </c>
@@ -7589,7 +7588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>306</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>306</v>
       </c>
@@ -7641,7 +7640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>306</v>
       </c>
@@ -7670,7 +7669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -7696,7 +7695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>306</v>
       </c>
@@ -7722,7 +7721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>343</v>
       </c>
@@ -7748,7 +7747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>343</v>
       </c>
@@ -7774,7 +7773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>343</v>
       </c>
@@ -7803,7 +7802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>343</v>
       </c>
@@ -7832,7 +7831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>343</v>
       </c>
@@ -7858,7 +7857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>343</v>
       </c>
@@ -7887,7 +7886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>343</v>
       </c>
@@ -7913,7 +7912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>343</v>
       </c>
@@ -7942,7 +7941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>343</v>
       </c>
@@ -7971,7 +7970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>343</v>
       </c>
@@ -7997,7 +7996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>378</v>
       </c>
@@ -8023,7 +8022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>378</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>378</v>
       </c>
@@ -8078,7 +8077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>378</v>
       </c>
@@ -8107,7 +8106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>378</v>
       </c>
@@ -8133,7 +8132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>378</v>
       </c>
@@ -8159,7 +8158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>378</v>
       </c>
@@ -8185,7 +8184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>378</v>
       </c>
@@ -8211,7 +8210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>378</v>
       </c>
@@ -8240,7 +8239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>378</v>
       </c>
@@ -8266,7 +8265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>378</v>
       </c>
@@ -8292,7 +8291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>378</v>
       </c>
@@ -8321,7 +8320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>378</v>
       </c>
@@ -8350,7 +8349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>378</v>
       </c>
@@ -8379,7 +8378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>378</v>
       </c>
@@ -8408,7 +8407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>378</v>
       </c>
@@ -8434,7 +8433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>443</v>
       </c>
@@ -8460,7 +8459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>443</v>
       </c>
@@ -8486,7 +8485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>443</v>
       </c>
@@ -8515,7 +8514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>443</v>
       </c>
@@ -8544,7 +8543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>443</v>
       </c>
@@ -8570,7 +8569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>443</v>
       </c>
@@ -8596,7 +8595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>443</v>
       </c>
@@ -8622,7 +8621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>443</v>
       </c>
@@ -8648,7 +8647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>443</v>
       </c>
@@ -8674,7 +8673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>443</v>
       </c>
@@ -8700,7 +8699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>443</v>
       </c>
@@ -8729,7 +8728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>443</v>
       </c>
@@ -8758,7 +8757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>443</v>
       </c>
@@ -8787,7 +8786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>443</v>
       </c>
@@ -8816,7 +8815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>443</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>512</v>
       </c>
@@ -8868,7 +8867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>512</v>
       </c>
@@ -8894,7 +8893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>512</v>
       </c>
@@ -8920,7 +8919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>512</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>512</v>
       </c>
@@ -8972,7 +8971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>512</v>
       </c>
@@ -8998,7 +8997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>512</v>
       </c>
@@ -9027,7 +9026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>512</v>
       </c>
@@ -9056,7 +9055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>512</v>
       </c>
@@ -9085,7 +9084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>512</v>
       </c>
@@ -9114,7 +9113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>512</v>
       </c>
@@ -9143,7 +9142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>512</v>
       </c>
@@ -9172,7 +9171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>512</v>
       </c>
@@ -9198,7 +9197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>512</v>
       </c>
@@ -9224,7 +9223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>567</v>
       </c>
@@ -9250,7 +9249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>567</v>
       </c>
@@ -9276,7 +9275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>567</v>
       </c>
@@ -9302,7 +9301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>567</v>
       </c>
@@ -9328,7 +9327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>567</v>
       </c>
@@ -9354,7 +9353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>567</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>567</v>
       </c>
@@ -9406,7 +9405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>567</v>
       </c>
@@ -9432,7 +9431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>567</v>
       </c>
@@ -9458,7 +9457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>567</v>
       </c>
@@ -9484,7 +9483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>567</v>
       </c>
@@ -9510,7 +9509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>567</v>
       </c>
@@ -9539,7 +9538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>567</v>
       </c>
@@ -9565,7 +9564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>567</v>
       </c>
@@ -9591,7 +9590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>621</v>
       </c>
@@ -9617,7 +9616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>621</v>
       </c>
@@ -9643,7 +9642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>621</v>
       </c>
@@ -9672,7 +9671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>621</v>
       </c>
@@ -9701,7 +9700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>621</v>
       </c>
@@ -9727,7 +9726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>621</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>621</v>
       </c>
@@ -9785,7 +9784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>621</v>
       </c>
@@ -9814,7 +9813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>621</v>
       </c>
@@ -9843,7 +9842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>621</v>
       </c>
@@ -9872,7 +9871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>621</v>
       </c>
@@ -9901,7 +9900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>621</v>
       </c>
@@ -9930,7 +9929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>621</v>
       </c>
@@ -9959,7 +9958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>621</v>
       </c>
@@ -9988,7 +9987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>621</v>
       </c>
@@ -10014,7 +10013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>683</v>
       </c>
@@ -10040,7 +10039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>683</v>
       </c>
@@ -10066,7 +10065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>683</v>
       </c>
@@ -10095,7 +10094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>683</v>
       </c>
@@ -10124,7 +10123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>683</v>
       </c>
@@ -10150,7 +10149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>683</v>
       </c>
@@ -10176,7 +10175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>683</v>
       </c>
@@ -10202,7 +10201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>683</v>
       </c>
@@ -10228,7 +10227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>683</v>
       </c>
@@ -10257,7 +10256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>683</v>
       </c>
@@ -10283,7 +10282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>683</v>
       </c>
@@ -10312,7 +10311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>683</v>
       </c>
@@ -10341,7 +10340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>683</v>
       </c>
@@ -10370,7 +10369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>683</v>
       </c>
@@ -10399,7 +10398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>683</v>
       </c>
@@ -10425,7 +10424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>735</v>
       </c>
@@ -10451,7 +10450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>735</v>
       </c>
@@ -10477,7 +10476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>735</v>
       </c>
@@ -10506,7 +10505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>735</v>
       </c>
@@ -10535,7 +10534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>735</v>
       </c>
@@ -10561,7 +10560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>735</v>
       </c>
@@ -10587,7 +10586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>735</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>735</v>
       </c>
@@ -10639,7 +10638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>735</v>
       </c>
@@ -10668,7 +10667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>735</v>
       </c>
@@ -10697,7 +10696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>735</v>
       </c>
@@ -10726,7 +10725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>735</v>
       </c>
@@ -10752,7 +10751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>782</v>
       </c>
@@ -10778,7 +10777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>782</v>
       </c>
@@ -10804,7 +10803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>782</v>
       </c>
@@ -10830,7 +10829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>782</v>
       </c>
@@ -10856,7 +10855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>782</v>
       </c>
@@ -10882,7 +10881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>782</v>
       </c>
@@ -10908,7 +10907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>782</v>
       </c>
@@ -10937,7 +10936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>782</v>
       </c>
@@ -10966,7 +10965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>782</v>
       </c>
@@ -10995,7 +10994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>782</v>
       </c>
@@ -11024,7 +11023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>782</v>
       </c>
@@ -11053,7 +11052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>782</v>
       </c>
@@ -11082,7 +11081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>782</v>
       </c>
@@ -11111,7 +11110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>782</v>
       </c>
@@ -11140,7 +11139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>782</v>
       </c>
@@ -11169,7 +11168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>782</v>
       </c>
@@ -11195,7 +11194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>843</v>
       </c>
@@ -11221,7 +11220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>843</v>
       </c>
@@ -11247,7 +11246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>843</v>
       </c>
@@ -11273,7 +11272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>843</v>
       </c>
@@ -11302,7 +11301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>843</v>
       </c>
@@ -11328,7 +11327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>843</v>
       </c>
@@ -11360,7 +11359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>843</v>
       </c>
@@ -11386,7 +11385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>843</v>
       </c>
@@ -11412,7 +11411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>843</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>843</v>
       </c>
@@ -11464,7 +11463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>843</v>
       </c>
@@ -11490,7 +11489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>843</v>
       </c>
@@ -11519,7 +11518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>843</v>
       </c>
@@ -11548,7 +11547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>843</v>
       </c>
@@ -11574,7 +11573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>902</v>
       </c>
@@ -11600,7 +11599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>902</v>
       </c>
@@ -11626,7 +11625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>902</v>
       </c>
@@ -11652,7 +11651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>902</v>
       </c>
@@ -11678,7 +11677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>902</v>
       </c>
@@ -11704,7 +11703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>902</v>
       </c>
@@ -11730,7 +11729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>902</v>
       </c>
@@ -11756,7 +11755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>902</v>
       </c>
@@ -11785,7 +11784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>902</v>
       </c>
@@ -11814,7 +11813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>902</v>
       </c>
@@ -11843,7 +11842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>902</v>
       </c>
@@ -11869,7 +11868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>943</v>
       </c>
@@ -11895,7 +11894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>943</v>
       </c>
@@ -11921,7 +11920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>943</v>
       </c>
@@ -11947,7 +11946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>943</v>
       </c>
@@ -11973,7 +11972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>943</v>
       </c>
@@ -11999,7 +11998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>943</v>
       </c>
@@ -12028,7 +12027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>943</v>
       </c>
@@ -12054,7 +12053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>943</v>
       </c>
@@ -12083,7 +12082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>943</v>
       </c>
@@ -12112,7 +12111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>943</v>
       </c>
@@ -12141,7 +12140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>943</v>
       </c>
@@ -12170,7 +12169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>943</v>
       </c>
@@ -12199,7 +12198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>943</v>
       </c>
@@ -12228,7 +12227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>943</v>
       </c>
@@ -12254,7 +12253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>943</v>
       </c>
@@ -12280,7 +12279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>943</v>
       </c>
@@ -12306,7 +12305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>1002</v>
       </c>
@@ -12332,7 +12331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>1002</v>
       </c>
@@ -12358,7 +12357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>1002</v>
       </c>
@@ -12387,7 +12386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>1002</v>
       </c>
@@ -12416,7 +12415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>1002</v>
       </c>
@@ -12442,7 +12441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>1002</v>
       </c>
@@ -12468,7 +12467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>1002</v>
       </c>
@@ -12494,7 +12493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>1002</v>
       </c>
@@ -12520,7 +12519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>1002</v>
       </c>
@@ -12549,7 +12548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>1002</v>
       </c>
@@ -12578,7 +12577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>1002</v>
       </c>
@@ -12607,7 +12606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>1002</v>
       </c>
@@ -12636,7 +12635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>1002</v>
       </c>
@@ -12665,7 +12664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>1002</v>
       </c>
@@ -12694,7 +12693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>1002</v>
       </c>
@@ -12723,7 +12722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>1002</v>
       </c>
@@ -12752,7 +12751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>1002</v>
       </c>
@@ -12781,7 +12780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>1002</v>
       </c>
@@ -12807,7 +12806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>1081</v>
       </c>
@@ -12833,7 +12832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>1081</v>
       </c>
@@ -12859,7 +12858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>1081</v>
       </c>
@@ -12888,7 +12887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>1081</v>
       </c>
@@ -12917,7 +12916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>1081</v>
       </c>
@@ -12943,7 +12942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>1081</v>
       </c>
@@ -12969,7 +12968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>1081</v>
       </c>
@@ -12995,7 +12994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>1081</v>
       </c>
@@ -13021,7 +13020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>1081</v>
       </c>
@@ -13047,7 +13046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>1081</v>
       </c>
@@ -13073,7 +13072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>1081</v>
       </c>
@@ -13102,7 +13101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>1081</v>
       </c>
@@ -13131,7 +13130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>1081</v>
       </c>
@@ -13160,7 +13159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>1081</v>
       </c>
@@ -13189,7 +13188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>1081</v>
       </c>
@@ -13215,7 +13214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>1136</v>
       </c>
@@ -13241,7 +13240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>1136</v>
       </c>
@@ -13267,7 +13266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>1136</v>
       </c>
@@ -13293,7 +13292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>1136</v>
       </c>
@@ -13322,7 +13321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>1136</v>
       </c>
@@ -13351,7 +13350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>1136</v>
       </c>
@@ -13377,7 +13376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>1136</v>
       </c>
@@ -13406,7 +13405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>1136</v>
       </c>
@@ -13435,7 +13434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>1136</v>
       </c>
@@ -13464,7 +13463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>1136</v>
       </c>
@@ -13493,7 +13492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>1136</v>
       </c>
@@ -13519,7 +13518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>1177</v>
       </c>
@@ -13545,7 +13544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>1177</v>
       </c>
@@ -13571,7 +13570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>1177</v>
       </c>
@@ -13597,7 +13596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>1177</v>
       </c>
@@ -13623,7 +13622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>1177</v>
       </c>
@@ -13649,7 +13648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>1177</v>
       </c>
@@ -13675,7 +13674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>1177</v>
       </c>
@@ -13704,7 +13703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>1177</v>
       </c>
@@ -13733,7 +13732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>1177</v>
       </c>
@@ -13762,7 +13761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>1177</v>
       </c>
@@ -13791,7 +13790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>1177</v>
       </c>
@@ -13820,7 +13819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>1177</v>
       </c>
@@ -13846,7 +13845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>1177</v>
       </c>
@@ -13875,7 +13874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>1177</v>
       </c>
@@ -13901,7 +13900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>1230</v>
       </c>
@@ -13927,7 +13926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>1230</v>
       </c>
@@ -13953,7 +13952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>1230</v>
       </c>
@@ -13979,7 +13978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>1230</v>
       </c>
@@ -14005,7 +14004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>1230</v>
       </c>
@@ -14031,7 +14030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>1230</v>
       </c>
@@ -14060,7 +14059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>1230</v>
       </c>
@@ -14086,7 +14085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>1230</v>
       </c>
@@ -14112,7 +14111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>1230</v>
       </c>
@@ -14141,7 +14140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>1230</v>
       </c>
@@ -14170,7 +14169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>1230</v>
       </c>
@@ -14199,7 +14198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>1230</v>
       </c>
@@ -14228,7 +14227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>1230</v>
       </c>
@@ -14257,7 +14256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>1230</v>
       </c>
@@ -14286,7 +14285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>1230</v>
       </c>
@@ -14315,7 +14314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>1230</v>
       </c>
@@ -14344,7 +14343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>1230</v>
       </c>
@@ -14373,7 +14372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>1230</v>
       </c>
@@ -14402,7 +14401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>1230</v>
       </c>
@@ -14431,7 +14430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>1230</v>
       </c>
@@ -14460,7 +14459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>1230</v>
       </c>
@@ -14489,7 +14488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>1230</v>
       </c>
@@ -14518,7 +14517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>1230</v>
       </c>
@@ -14547,7 +14546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>1230</v>
       </c>
@@ -14576,7 +14575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>1230</v>
       </c>
@@ -14605,7 +14604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>1230</v>
       </c>
@@ -14631,7 +14630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>1230</v>
       </c>
@@ -14657,7 +14656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>1342</v>
       </c>
@@ -14683,7 +14682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>1342</v>
       </c>
@@ -14709,7 +14708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>1342</v>
       </c>
@@ -14735,7 +14734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>1342</v>
       </c>
@@ -14761,7 +14760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>1342</v>
       </c>
@@ -14787,7 +14786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>1342</v>
       </c>
@@ -14813,7 +14812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>1342</v>
       </c>
@@ -14842,7 +14841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>1342</v>
       </c>
@@ -14871,7 +14870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>1342</v>
       </c>
@@ -14900,7 +14899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>1342</v>
       </c>
@@ -14929,7 +14928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>1342</v>
       </c>
@@ -14958,7 +14957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>1342</v>
       </c>
@@ -14987,7 +14986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>1342</v>
       </c>
@@ -15016,7 +15015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>1342</v>
       </c>
@@ -15042,7 +15041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>1342</v>
       </c>
@@ -15068,7 +15067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>1342</v>
       </c>
@@ -15094,7 +15093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>1400</v>
       </c>
@@ -15120,7 +15119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>1400</v>
       </c>
@@ -15149,7 +15148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>1400</v>
       </c>
@@ -15178,7 +15177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>1400</v>
       </c>
@@ -15207,7 +15206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>1400</v>
       </c>
@@ -15236,7 +15235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>1400</v>
       </c>
@@ -15265,7 +15264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>1400</v>
       </c>
@@ -15291,7 +15290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>1400</v>
       </c>
@@ -15317,7 +15316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>1400</v>
       </c>
@@ -15343,7 +15342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>1400</v>
       </c>
@@ -15369,7 +15368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>1400</v>
       </c>
@@ -15395,7 +15394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>1400</v>
       </c>
@@ -15421,7 +15420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>1400</v>
       </c>
@@ -15447,7 +15446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>1400</v>
       </c>
@@ -15476,7 +15475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>1400</v>
       </c>
@@ -15502,7 +15501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>1461</v>
       </c>
@@ -15528,7 +15527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>1461</v>
       </c>
@@ -15554,7 +15553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>1461</v>
       </c>
@@ -15580,7 +15579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>1461</v>
       </c>
@@ -15606,7 +15605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>1461</v>
       </c>
@@ -15632,7 +15631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>1461</v>
       </c>
@@ -15658,7 +15657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>1461</v>
       </c>
@@ -15687,7 +15686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>1461</v>
       </c>
@@ -15716,7 +15715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>1461</v>
       </c>
@@ -15745,7 +15744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>1461</v>
       </c>
@@ -15774,7 +15773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>1461</v>
       </c>
@@ -15803,7 +15802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>1461</v>
       </c>
@@ -15832,7 +15831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>1461</v>
       </c>
@@ -15859,17 +15858,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L377" xr:uid="{7F9EF895-32AD-4AE6-99DF-B0994CC1BD6F}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="About the Authors - Über die Autoren und Autorinnen"/>
-        <filter val="About the Authors - Über die Autorinnen und Autoren"/>
-        <filter val="About the Authors – Über die Autorinnen und Autoren"/>
-        <filter val="Über die Autorinnen und Autoren"/>
-        <filter val="Über die Autorinnen und Autoren - About the authors"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L377" xr:uid="{7F9EF895-32AD-4AE6-99DF-B0994CC1BD6F}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -15882,13 +15871,13 @@
       <selection activeCell="A17" sqref="A4:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>1585</v>
       </c>
@@ -15896,7 +15885,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1569</v>
       </c>
@@ -15904,7 +15893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1556</v>
       </c>
@@ -15912,7 +15901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>1546</v>
       </c>
@@ -15920,7 +15909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>1584</v>
       </c>
@@ -15928,7 +15917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>1545</v>
       </c>
@@ -15936,7 +15925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>1547</v>
       </c>
@@ -15944,7 +15933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>1548</v>
       </c>
@@ -15952,7 +15941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>1553</v>
       </c>
@@ -15960,7 +15949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>1549</v>
       </c>
@@ -15968,7 +15957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>1555</v>
       </c>
@@ -15976,7 +15965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>1544</v>
       </c>
@@ -15984,7 +15973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1550</v>
       </c>
@@ -15992,7 +15981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>1552</v>
       </c>
@@ -16000,7 +15989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>1551</v>
       </c>
@@ -16008,13 +15997,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>1586</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>1587</v>
       </c>
@@ -16035,16 +16024,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.86328125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="4" max="5" width="28.73046875" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -16064,7 +16053,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>767</v>
       </c>
@@ -16084,7 +16073,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -16104,7 +16093,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1554</v>
       </c>
@@ -16124,7 +16113,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1168</v>
       </c>
@@ -16144,7 +16133,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>996</v>
       </c>
@@ -16164,7 +16153,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>1336</v>
       </c>
@@ -16184,7 +16173,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>729</v>
       </c>
@@ -16204,7 +16193,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>1200</v>
       </c>
@@ -16224,7 +16213,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>1051</v>
       </c>
@@ -16244,7 +16233,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>929</v>
       </c>
@@ -16264,7 +16253,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>1092</v>
       </c>
@@ -16284,7 +16273,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>1035</v>
       </c>
@@ -16304,7 +16293,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>489</v>
       </c>
@@ -16324,7 +16313,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1221</v>
       </c>
@@ -16344,7 +16333,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>659</v>
       </c>
@@ -16364,7 +16353,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>1305</v>
       </c>
@@ -16384,7 +16373,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>1046</v>
       </c>
@@ -16404,7 +16393,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>1266</v>
       </c>
@@ -16424,7 +16413,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>808</v>
       </c>
@@ -16444,7 +16433,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>772</v>
       </c>
@@ -16464,7 +16453,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>212</v>
       </c>
@@ -16484,7 +16473,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -16504,7 +16493,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>832</v>
       </c>
@@ -16524,7 +16513,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>1249</v>
       </c>
@@ -16544,7 +16533,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>1283</v>
       </c>
@@ -16564,7 +16553,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>417</v>
       </c>
@@ -16584,7 +16573,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>975</v>
       </c>
@@ -16604,7 +16593,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>980</v>
       </c>
@@ -16624,7 +16613,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>1261</v>
       </c>
@@ -16644,7 +16633,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>633</v>
       </c>
@@ -16664,7 +16653,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>1014</v>
       </c>
@@ -16684,7 +16673,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>1225</v>
       </c>
@@ -16704,7 +16693,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>747</v>
       </c>
@@ -16724,7 +16713,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>88</v>
       </c>
@@ -16744,7 +16733,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>388</v>
       </c>
@@ -16764,7 +16753,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>274</v>
       </c>
@@ -16784,7 +16773,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>229</v>
       </c>
@@ -16804,7 +16793,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>1490</v>
       </c>
@@ -16824,7 +16813,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>450</v>
       </c>
@@ -16844,7 +16833,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>455</v>
       </c>
@@ -16864,7 +16853,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>742</v>
       </c>
@@ -16884,7 +16873,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
@@ -16904,7 +16893,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>313</v>
       </c>
@@ -16924,7 +16913,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>1009</v>
       </c>
@@ -16944,7 +16933,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>628</v>
       </c>
@@ -16964,7 +16953,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>224</v>
       </c>
@@ -16984,7 +16973,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>504</v>
       </c>
@@ -17004,7 +16993,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>411</v>
       </c>
@@ -17024,7 +17013,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>1288</v>
       </c>
@@ -17044,7 +17033,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>1275</v>
       </c>
@@ -17064,7 +17053,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>1570</v>
       </c>
@@ -17092,25 +17081,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684E9DB5-6864-4CCB-B516-676B6091924A}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" customWidth="1"/>
+    <col min="8" max="8" width="15.73046875" customWidth="1"/>
+    <col min="9" max="9" width="21.1328125" customWidth="1"/>
+    <col min="10" max="10" width="20.265625" customWidth="1"/>
+    <col min="11" max="11" width="18.3984375" customWidth="1"/>
+    <col min="12" max="12" width="15.3984375" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1533</v>
       </c>
@@ -17154,7 +17143,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1553</v>
       </c>
@@ -17195,7 +17184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1550</v>
       </c>
@@ -17236,7 +17225,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1569</v>
       </c>
@@ -17277,7 +17266,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1584</v>
       </c>
@@ -17318,7 +17307,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>1547</v>
       </c>
@@ -17359,7 +17348,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>1548</v>
       </c>
@@ -17400,7 +17389,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>1552</v>
       </c>
@@ -17441,7 +17430,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>1551</v>
       </c>
@@ -17482,7 +17471,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>1549</v>
       </c>
@@ -17523,7 +17512,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>1555</v>
       </c>
@@ -17564,7 +17553,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>1544</v>
       </c>
@@ -17605,7 +17594,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>1546</v>
       </c>
@@ -17646,7 +17635,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>1545</v>
       </c>
@@ -17687,7 +17676,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1556</v>
       </c>
@@ -17742,12 +17731,12 @@
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="93.5703125" customWidth="1"/>
+    <col min="1" max="1" width="93.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1521</v>
       </c>
@@ -17758,7 +17747,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1036</v>
       </c>
@@ -17769,7 +17758,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>934</v>
       </c>
@@ -17780,7 +17769,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>328</v>
       </c>
@@ -17791,7 +17780,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1455</v>
       </c>
@@ -17802,7 +17791,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>1026</v>
       </c>
@@ -17813,7 +17802,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>768</v>
       </c>
@@ -17824,7 +17813,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>813</v>
       </c>
@@ -17835,7 +17824,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
@@ -17846,7 +17835,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>700</v>
       </c>
@@ -17857,7 +17846,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>438</v>
       </c>
@@ -17868,7 +17857,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>519</v>
       </c>
@@ -17879,7 +17868,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>287</v>
       </c>
@@ -17890,7 +17879,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>1052</v>
       </c>
@@ -17901,7 +17890,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>751</v>
       </c>
@@ -17912,7 +17901,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>1188</v>
       </c>
@@ -17923,7 +17912,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>1429</v>
       </c>
@@ -17934,7 +17923,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>1360</v>
       </c>
@@ -17945,7 +17934,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>917</v>
       </c>
@@ -17956,7 +17945,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>1486</v>
       </c>
@@ -17967,7 +17956,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>1301</v>
       </c>
@@ -17978,7 +17967,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -17989,7 +17978,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>950</v>
       </c>
@@ -18000,7 +17989,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18011,7 +18000,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>801</v>
       </c>
@@ -18022,7 +18011,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>1413</v>
       </c>
@@ -18033,7 +18022,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>654</v>
       </c>
@@ -18044,7 +18033,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>270</v>
       </c>
@@ -18055,7 +18044,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>451</v>
       </c>
@@ -18066,7 +18055,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>412</v>
       </c>
@@ -18077,7 +18066,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>429</v>
       </c>
@@ -18088,7 +18077,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>282</v>
       </c>
@@ -18099,7 +18088,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>1297</v>
       </c>
@@ -18110,7 +18099,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>234</v>
       </c>
@@ -18121,7 +18110,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>809</v>
       </c>
@@ -18132,7 +18121,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>118</v>
       </c>
@@ -18143,7 +18132,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>1254</v>
       </c>
@@ -18154,7 +18143,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>179</v>
       </c>
@@ -18165,7 +18154,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>1041</v>
       </c>
@@ -18176,7 +18165,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>1481</v>
       </c>
@@ -18187,7 +18176,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>36</v>
       </c>
@@ -18198,7 +18187,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -18209,7 +18198,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>856</v>
       </c>
@@ -18220,7 +18209,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>397</v>
       </c>
@@ -18231,7 +18220,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>797</v>
       </c>
@@ -18242,7 +18231,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>1425</v>
       </c>
@@ -18253,7 +18242,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>1112</v>
       </c>
@@ -18264,7 +18253,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>113</v>
       </c>
@@ -18275,7 +18264,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>292</v>
       </c>
@@ -18286,7 +18275,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>495</v>
       </c>
@@ -18297,7 +18286,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -18308,7 +18297,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>84</v>
       </c>
@@ -18319,7 +18308,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>1047</v>
       </c>
@@ -18330,7 +18319,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>870</v>
       </c>
@@ -18341,7 +18330,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>103</v>
       </c>
@@ -18352,7 +18341,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>793</v>
       </c>
@@ -18363,7 +18352,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>527</v>
       </c>
@@ -18374,7 +18363,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>909</v>
       </c>
@@ -18385,7 +18374,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>992</v>
       </c>
@@ -18396,7 +18385,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>1324</v>
       </c>
@@ -18407,7 +18396,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>460</v>
       </c>
@@ -18418,7 +18407,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>1310</v>
       </c>
@@ -18429,7 +18418,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>484</v>
       </c>
@@ -18440,7 +18429,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>593</v>
       </c>
@@ -18451,7 +18440,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>763</v>
       </c>
@@ -18462,7 +18451,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>1352</v>
       </c>
@@ -18473,7 +18462,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>1237</v>
       </c>
@@ -18484,7 +18473,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>238</v>
       </c>
@@ -18495,7 +18484,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>1348</v>
       </c>
@@ -18506,7 +18495,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>1075</v>
       </c>
@@ -18517,7 +18506,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>589</v>
       </c>
@@ -18528,7 +18517,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>480</v>
       </c>
@@ -18539,7 +18528,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>584</v>
       </c>
@@ -18550,7 +18539,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>392</v>
       </c>
@@ -18561,7 +18550,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>1163</v>
       </c>
@@ -18572,7 +18561,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>987</v>
       </c>
@@ -18583,7 +18572,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>1173</v>
       </c>
@@ -18594,7 +18583,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>153</v>
       </c>
@@ -18605,7 +18594,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>175</v>
       </c>
@@ -18616,7 +18605,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>773</v>
       </c>
@@ -18627,7 +18616,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>456</v>
       </c>
@@ -18638,7 +18627,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>610</v>
       </c>
@@ -18649,7 +18638,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>1433</v>
       </c>
@@ -18660,7 +18649,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>696</v>
       </c>
@@ -18671,7 +18660,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>202</v>
       </c>
@@ -18682,7 +18671,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>669</v>
       </c>
@@ -18693,7 +18682,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>207</v>
       </c>
@@ -18704,7 +18693,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>465</v>
       </c>
@@ -18715,7 +18704,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>225</v>
       </c>
@@ -18726,7 +18715,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>1150</v>
       </c>
@@ -18737,7 +18726,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>1388</v>
       </c>
@@ -18748,7 +18737,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>777</v>
       </c>
@@ -18759,7 +18748,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>323</v>
       </c>
@@ -18770,7 +18759,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>690</v>
       </c>
@@ -18781,7 +18770,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>1226</v>
       </c>
@@ -18792,7 +18781,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>828</v>
       </c>
@@ -18803,7 +18792,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>1116</v>
       </c>
@@ -18814,7 +18803,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>601</v>
       </c>
@@ -18825,7 +18814,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>1381</v>
       </c>
@@ -18836,7 +18825,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>1319</v>
       </c>
@@ -18847,7 +18836,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>197</v>
       </c>
@@ -18858,7 +18847,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>629</v>
       </c>
@@ -18869,7 +18858,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>213</v>
       </c>
@@ -18880,7 +18869,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>852</v>
       </c>
@@ -18891,7 +18880,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>755</v>
       </c>
@@ -18902,7 +18891,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>539</v>
       </c>
@@ -18913,7 +18902,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>640</v>
       </c>
@@ -18924,7 +18913,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>1097</v>
       </c>
@@ -18935,7 +18924,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>242</v>
       </c>
@@ -18946,7 +18935,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>1477</v>
       </c>
@@ -18957,7 +18946,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>301</v>
       </c>
@@ -18968,7 +18957,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>614</v>
       </c>
@@ -18979,7 +18968,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>957</v>
       </c>
@@ -18990,7 +18979,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>1245</v>
       </c>
@@ -19001,7 +18990,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>192</v>
       </c>
@@ -19012,7 +19001,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>882</v>
       </c>
@@ -19023,7 +19012,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>1088</v>
       </c>
@@ -19034,7 +19023,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>708</v>
       </c>
@@ -19045,7 +19034,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>1105</v>
       </c>
@@ -19056,7 +19045,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>1377</v>
       </c>
@@ -19067,7 +19056,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>821</v>
       </c>
@@ -19078,7 +19067,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>1010</v>
       </c>
@@ -19089,7 +19078,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>704</v>
       </c>
@@ -19100,7 +19089,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>597</v>
       </c>
@@ -19111,7 +19100,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>357</v>
       </c>
@@ -19122,7 +19111,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>556</v>
       </c>
@@ -19133,7 +19122,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>61</v>
       </c>
@@ -19144,7 +19133,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>1196</v>
       </c>
@@ -19155,7 +19144,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>718</v>
       </c>
@@ -19166,7 +19155,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>51</v>
       </c>
@@ -19177,7 +19166,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>605</v>
       </c>
@@ -19188,7 +19177,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>158</v>
       </c>
@@ -19199,7 +19188,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>142</v>
       </c>
@@ -19210,7 +19199,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>860</v>
       </c>
@@ -19221,7 +19210,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>976</v>
       </c>
@@ -19232,7 +19221,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>1250</v>
       </c>
@@ -19243,7 +19232,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>434</v>
       </c>
@@ -19254,7 +19243,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>1022</v>
       </c>
@@ -19265,7 +19254,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>743</v>
       </c>
@@ -19276,7 +19265,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>1192</v>
       </c>
@@ -19287,7 +19276,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>93</v>
       </c>
@@ -19298,7 +19287,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>1409</v>
       </c>
@@ -19309,7 +19298,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>551</v>
       </c>
@@ -19320,7 +19309,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>730</v>
       </c>
@@ -19331,7 +19320,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>385</v>
       </c>
@@ -19342,7 +19331,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>138</v>
       </c>
@@ -19353,7 +19342,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>1209</v>
       </c>
@@ -19364,7 +19353,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>921</v>
       </c>
@@ -19375,7 +19364,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>1271</v>
       </c>
@@ -19386,7 +19375,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>649</v>
       </c>
@@ -19397,7 +19386,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>1421</v>
       </c>
@@ -19408,7 +19397,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>1101</v>
       </c>
@@ -19419,7 +19408,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>789</v>
       </c>
@@ -19430,7 +19419,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>833</v>
       </c>
@@ -19441,7 +19430,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>187</v>
       </c>
@@ -19452,7 +19441,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>580</v>
       </c>
@@ -19463,7 +19452,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19474,7 +19463,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>1306</v>
       </c>
@@ -19485,7 +19474,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>660</v>
       </c>
@@ -19496,7 +19485,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>1060</v>
       </c>
@@ -19507,7 +19496,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>967</v>
       </c>
@@ -19518,7 +19507,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>817</v>
       </c>
@@ -19529,7 +19518,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>1093</v>
       </c>
@@ -19540,7 +19529,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>875</v>
       </c>
@@ -19551,7 +19540,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>1201</v>
       </c>
@@ -19562,7 +19551,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>1331</v>
       </c>
@@ -19573,7 +19562,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>131</v>
       </c>
@@ -19584,7 +19573,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>1154</v>
       </c>
@@ -19595,7 +19584,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>865</v>
       </c>
@@ -19606,7 +19595,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>499</v>
       </c>
@@ -19617,7 +19606,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>337</v>
       </c>
@@ -19628,7 +19617,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>490</v>
       </c>
@@ -19639,7 +19628,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>1018</v>
       </c>
@@ -19650,7 +19639,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>962</v>
       </c>
@@ -19661,7 +19650,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>1314</v>
       </c>
@@ -19672,7 +19661,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>1276</v>
       </c>
@@ -19683,7 +19672,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>544</v>
       </c>
@@ -19694,7 +19683,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>470</v>
       </c>
@@ -19705,7 +19694,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>891</v>
       </c>
@@ -19716,7 +19705,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>1241</v>
       </c>
@@ -19727,7 +19716,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>1056</v>
       </c>
@@ -19738,7 +19727,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>250</v>
       </c>
@@ -19749,7 +19738,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>1169</v>
       </c>
@@ -19760,7 +19749,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>1356</v>
       </c>
@@ -19771,7 +19760,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>25</v>
       </c>
@@ -19782,7 +19771,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>1495</v>
       </c>
@@ -19793,7 +19782,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>475</v>
       </c>
@@ -19804,7 +19793,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>838</v>
       </c>
@@ -19815,7 +19804,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>1445</v>
       </c>
@@ -19826,7 +19815,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>971</v>
       </c>
@@ -19837,7 +19826,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>1184</v>
       </c>
@@ -19848,7 +19837,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>108</v>
       </c>
@@ -19859,7 +19848,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>664</v>
       </c>
@@ -19870,7 +19859,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>402</v>
       </c>
@@ -19881,7 +19870,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>1070</v>
       </c>
@@ -19892,7 +19881,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>1500</v>
       </c>
@@ -19903,7 +19892,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>677</v>
       </c>
@@ -19914,7 +19903,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>147</v>
       </c>
@@ -19925,7 +19914,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>368</v>
       </c>
@@ -19936,7 +19925,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>1450</v>
       </c>
@@ -19947,7 +19936,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>505</v>
       </c>
@@ -19958,7 +19947,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>1158</v>
       </c>
@@ -19969,7 +19958,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>350</v>
       </c>
@@ -19980,7 +19969,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>645</v>
       </c>
@@ -19991,7 +19980,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>1217</v>
       </c>
@@ -20002,7 +19991,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>1120</v>
       </c>
@@ -20013,7 +20002,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>41</v>
       </c>
@@ -20024,7 +20013,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>46</v>
       </c>
@@ -20035,7 +20024,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20046,7 +20035,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>1405</v>
       </c>
@@ -20057,7 +20046,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>1292</v>
       </c>
@@ -20068,7 +20057,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>925</v>
       </c>
@@ -20079,7 +20068,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>364</v>
       </c>
@@ -20090,7 +20079,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>1127</v>
       </c>
@@ -20101,7 +20090,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>278</v>
       </c>
@@ -20112,7 +20101,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>1441</v>
       </c>
@@ -20123,7 +20112,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>1470</v>
       </c>
@@ -20134,7 +20123,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>319</v>
       </c>
@@ -20145,7 +20134,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>532</v>
       </c>
@@ -20156,7 +20145,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>1146</v>
       </c>
@@ -20167,7 +20156,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>1030</v>
       </c>

--- a/scenario_tocs.xlsx
+++ b/scenario_tocs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\xMeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0F769A-5A62-47B3-A952-C7591FDEF484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAB8913-31A2-4DCF-87DD-655AF4F80C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -5508,7 +5508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
@@ -17081,8 +17081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684E9DB5-6864-4CCB-B516-676B6091924A}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17178,7 +17178,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
         <v>14</v>
